--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="SYS_USER" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="157">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -639,12 +639,23 @@
     <t>my-base</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>{"country":"CN","country_code":"086"}</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -658,13 +669,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF871094"/>
-      <name val="Source Code Pro"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -756,9 +760,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -775,6 +776,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1078,9 +1080,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1138,51 +1140,51 @@
       <c r="M1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="12"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
@@ -1194,9 +1196,21 @@
       <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="N3" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASS_WORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"',null,'",F3,"','",G3,"','",H3,"','",I3,"','",J3,"','",K3,"','",L3,"','",M3,"',now(),now());")</f>
-        <v>INSERT INTO SYS_USER (USER_ID,USER_NAME,PASS_WORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('admin','超级管理员','$2a$10$.jycUozQpxha24tWaUGwFOKMI.BpZk1jw1vqydu7Q.uAnvc9wkVwy','',null,'','','','','','','','',now(),now());</v>
+        <v>INSERT INTO SYS_USER (USER_ID,USER_NAME,PASS_WORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('admin','超级管理员','$2a$10$.jycUozQpxha24tWaUGwFOKMI.BpZk1jw1vqydu7Q.uAnvc9wkVwy','',null,'','','','','1','1','1','1',now(),now());</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1208,12 +1222,24 @@
       </c>
       <c r="C4" s="3" t="s">
         <v>29</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="N4" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASS_WORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('
 ",A4,"','",B4,"','",C4,"','",D4,"',null,'",F4,"','",G4,"','",H4,"','",I4,"','",J4,"','",K4,"','",L4,"','",M4,"',now(),now());")</f>
         <v>INSERT INTO SYS_USER (USER_ID,USER_NAME,PASS_WORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('
-www','wenzday','$2a$10$.jycUozQpxha24tWaUGwFOKMI.BpZk1jw1vqydu7Q.uAnvc9wkVwy','',null,'','','','','','','','',now(),now());</v>
+www','wenzday','$2a$10$.jycUozQpxha24tWaUGwFOKMI.BpZk1jw1vqydu7Q.uAnvc9wkVwy','',null,'','','','','1','1','1','1',now(),now());</v>
       </c>
     </row>
     <row r="19" spans="12:12">
@@ -1255,7 +1281,7 @@
       <c r="B1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1266,7 +1292,7 @@
       <c r="B2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -1330,24 +1356,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -1387,9 +1413,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1408,78 +1434,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="40.5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40.5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="12"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
@@ -1506,9 +1532,12 @@
       <c r="I3" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="L3" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",",I3,",'",J3,"','",K3,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('blog','my-blog','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','all','authorization_code,password,client_credentials,implicit,refresh_token','https://www.baidu.com','',3600,604800,'','',now(),now());</v>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('blog','my-blog','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','all','authorization_code,password,client_credentials,implicit,refresh_token','https://www.baidu.com','',3600,604800,'{"country":"CN","country_code":"086"}','',now(),now());</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1536,9 +1565,12 @@
       <c r="I4" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="J4" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="L4" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"',",H4,",",I4,",'",J4,"','",K4,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('base','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','all','authorization_code,password,client_credentials,implicit,refresh_token','https://www.baidu.com','',3600,604800,'','',now(),now());</v>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('base','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','all','authorization_code,password,client_credentials,implicit,refresh_token','https://www.baidu.com','',3600,604800,'{"country":"CN","country_code":"086"}','',now(),now());</v>
       </c>
     </row>
   </sheetData>
@@ -1562,16 +1594,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="10" customWidth="1"/>
-    <col min="6" max="7" width="12.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="9" customWidth="1"/>
+    <col min="6" max="7" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="27">
@@ -1584,7 +1616,7 @@
       <c r="C1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -1599,7 +1631,7 @@
       <c r="H1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>100</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1608,7 +1640,7 @@
       <c r="K1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1646,31 +1678,31 @@
       <c r="K2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="12"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>1</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>0</v>
       </c>
       <c r="L3" t="str">
@@ -1679,28 +1711,28 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>2</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>105</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>0</v>
       </c>
       <c r="L4" t="str">
@@ -1709,28 +1741,28 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>3</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>105</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>0</v>
       </c>
       <c r="L5" t="str">
@@ -1739,28 +1771,28 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>4</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>0</v>
       </c>
       <c r="L6" t="str">
@@ -1769,25 +1801,25 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>2</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>0</v>
       </c>
       <c r="L7" t="str">
@@ -1796,25 +1828,25 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <v>2</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>0</v>
       </c>
       <c r="L8" t="str">
@@ -1823,25 +1855,25 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>2</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>0</v>
       </c>
       <c r="L9" t="str">
@@ -1850,25 +1882,25 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>3</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <v>0</v>
       </c>
       <c r="L10" t="str">
@@ -1877,31 +1909,31 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>1</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>3</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>0</v>
       </c>
       <c r="L11" t="str">
@@ -1910,31 +1942,31 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>2</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>3</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>0</v>
       </c>
       <c r="L12" t="str">
@@ -1943,31 +1975,31 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D13" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>3</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>3</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <v>0</v>
       </c>
       <c r="L13" t="str">
@@ -1976,31 +2008,31 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>4</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>3</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <v>0</v>
       </c>
       <c r="L14" t="str">
@@ -2009,31 +2041,31 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>5</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <v>3</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <v>0</v>
       </c>
       <c r="L15" t="str">
@@ -2068,7 +2100,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -2077,12 +2109,12 @@
       <c r="C1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2091,7 +2123,7 @@
       <c r="C2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -2100,7 +2132,7 @@
       <c r="B3" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>150</v>
       </c>
       <c r="D3" t="str">
@@ -2115,7 +2147,7 @@
       <c r="B4" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>130</v>
       </c>
       <c r="D4" t="str">
@@ -2130,7 +2162,7 @@
       <c r="B5" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>134</v>
       </c>
       <c r="D5" t="str">
@@ -2145,7 +2177,7 @@
       <c r="B6" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>138</v>
       </c>
       <c r="D6" t="str">
@@ -2160,7 +2192,7 @@
       <c r="B7" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>142</v>
       </c>
       <c r="D7" t="str">
@@ -2175,7 +2207,7 @@
       <c r="B8" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>146</v>
       </c>
       <c r="D8" t="str">
@@ -2190,7 +2222,7 @@
       <c r="B9" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>150</v>
       </c>
       <c r="D9" t="str">
@@ -2205,7 +2237,7 @@
       <c r="B10" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>130</v>
       </c>
       <c r="D10" t="str">
@@ -2220,7 +2252,7 @@
       <c r="B11" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>134</v>
       </c>
       <c r="D11" t="str">
@@ -2235,7 +2267,7 @@
       <c r="B12" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>142</v>
       </c>
       <c r="D12" t="str">
@@ -2250,7 +2282,7 @@
       <c r="B13" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D13" t="str">
@@ -2265,7 +2297,7 @@
       <c r="B14" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>106</v>
       </c>
       <c r="D14" t="str">
@@ -2280,7 +2312,7 @@
       <c r="B15" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>110</v>
       </c>
       <c r="D15" t="str">
@@ -2295,7 +2327,7 @@
       <c r="B16" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D16" t="str">
@@ -2310,7 +2342,7 @@
       <c r="B17" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D17" t="str">
@@ -2325,7 +2357,7 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>106</v>
       </c>
       <c r="D18" t="str">
@@ -2337,10 +2369,10 @@
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D19" t="str">
@@ -2352,10 +2384,10 @@
       <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D20" t="str">
@@ -2367,10 +2399,10 @@
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D21" t="str">
@@ -2382,10 +2414,10 @@
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>118</v>
       </c>
       <c r="D22" t="str">

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SYS_USER" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="157">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,19 +303,11 @@
     <t>是否跳转授权页面</t>
   </si>
   <si>
-    <t>blog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>my-blog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -632,22 +624,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"country":"CN","country_code":"086"}</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>base</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>my-base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"country":"CN","country_code":"086"}</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
+    <t>blog,base</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,13 +770,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1080,9 +1080,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1140,51 +1140,51 @@
       <c r="M1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="11"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
@@ -1197,16 +1197,16 @@
         <v>29</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N3" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASS_WORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"',null,'",F3,"','",G3,"','",H3,"','",I3,"','",J3,"','",K3,"','",L3,"','",M3,"',now(),now());")</f>
@@ -1224,16 +1224,16 @@
         <v>29</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N4" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASS_WORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('
@@ -1281,7 +1281,7 @@
       <c r="B1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       <c r="B2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -1362,7 +1362,7 @@
       <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
       <c r="B2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -1413,9 +1413,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1467,7 +1467,7 @@
       <c r="K1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1505,72 +1505,78 @@
       <c r="K2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="11"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="L3" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",",I3,",'",J3,"','",K3,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('blog','my-blog','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','all','authorization_code,password,client_credentials,implicit,refresh_token','https://www.baidu.com','',3600,604800,'{"country":"CN","country_code":"086"}','',now(),now());</v>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-base','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base','authorization_code,password,client_credentials,implicit,refresh_token','https://www.baidu.com','',3600,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="L4" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"',",H4,",",I4,",'",J4,"','",K4,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('base','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','all','authorization_code,password,client_credentials,implicit,refresh_token','https://www.baidu.com','',3600,604800,'{"country":"CN","country_code":"086"}','',now(),now());</v>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog','my-blog','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','blog,base','authorization_code,password,client_credentials,implicit,refresh_token','https://www.baidu.com','',3600,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
       </c>
     </row>
   </sheetData>
@@ -1608,90 +1614,90 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A1" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>64</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" s="11"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="C3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
@@ -1700,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K3" s="9">
         <v>0</v>
@@ -1712,16 +1718,16 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="H4" s="9">
         <v>2</v>
@@ -1730,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K4" s="9">
         <v>0</v>
@@ -1742,16 +1748,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H5" s="9">
         <v>3</v>
@@ -1760,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K5" s="9">
         <v>0</v>
@@ -1772,16 +1778,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="C6" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H6" s="9">
         <v>4</v>
@@ -1790,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K6" s="9">
         <v>0</v>
@@ -1802,22 +1808,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="I7" s="9">
         <v>2</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
@@ -1829,22 +1835,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>124</v>
-      </c>
       <c r="E8" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I8" s="9">
         <v>2</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K8" s="9">
         <v>0</v>
@@ -1856,22 +1862,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I9" s="9">
         <v>2</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K9" s="9">
         <v>0</v>
@@ -1883,13 +1889,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H10" s="9">
         <v>0</v>
@@ -1898,7 +1904,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K10" s="9">
         <v>0</v>
@@ -1910,19 +1916,19 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="F11" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H11" s="9">
         <v>1</v>
@@ -1931,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K11" s="9">
         <v>0</v>
@@ -1943,19 +1949,19 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>137</v>
-      </c>
       <c r="F12" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H12" s="9">
         <v>2</v>
@@ -1964,7 +1970,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
@@ -1976,19 +1982,19 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="D13" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" t="s">
-        <v>141</v>
-      </c>
       <c r="F13" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H13" s="9">
         <v>3</v>
@@ -1997,7 +2003,7 @@
         <v>3</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K13" s="9">
         <v>0</v>
@@ -2009,19 +2015,19 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="F14" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H14" s="9">
         <v>4</v>
@@ -2030,7 +2036,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K14" s="9">
         <v>0</v>
@@ -2042,19 +2048,19 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="H15" s="9">
         <v>5</v>
@@ -2063,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K15" s="9">
         <v>0</v>
@@ -2104,12 +2110,12 @@
         <v>44</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2118,22 +2124,22 @@
         <v>45</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D3" t="str">
         <f>CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A3,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C3,"' AND MODULE='",B3,"'),now(),now());")</f>
@@ -2145,10 +2151,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D22" si="0">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A4,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C4,"' AND MODULE='",B4,"'),now(),now());")</f>
@@ -2160,10 +2166,10 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -2175,10 +2181,10 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -2190,10 +2196,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -2205,10 +2211,10 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -2220,10 +2226,10 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -2235,10 +2241,10 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2250,10 +2256,10 @@
         <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -2265,10 +2271,10 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -2280,10 +2286,10 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -2295,10 +2301,10 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -2310,10 +2316,10 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -2325,10 +2331,10 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -2340,10 +2346,10 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -2355,10 +2361,10 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -2370,10 +2376,10 @@
         <v>27</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -2385,10 +2391,10 @@
         <v>27</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -2400,10 +2406,10 @@
         <v>27</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -2415,10 +2421,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -643,11 +643,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blog,base</t>
+    <t>base:read,base:write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blog:read,blog:write,base:read</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1415,7 +1415,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="L3" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",",I3,",'",J3,"','",K3,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-base','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base','authorization_code,password,client_credentials,implicit,refresh_token','https://www.baidu.com','',3600,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-base','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base:read,base:write','authorization_code,password,client_credentials,implicit,refresh_token','https://www.baidu.com','',3600,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="L4" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"',",H4,",",I4,",'",J4,"','",K4,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog','my-blog','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','blog,base','authorization_code,password,client_credentials,implicit,refresh_token','https://www.baidu.com','',3600,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog','my-blog','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','blog:read,blog:write,base:read','authorization_code,password,client_credentials,implicit,refresh_token','https://www.baidu.com','',3600,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
       </c>
     </row>
   </sheetData>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SYS_USER" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="146">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,10 +316,6 @@
   </si>
   <si>
     <t>https://www.baidu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -421,7 +417,177 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>home</t>
+    <t>admin-menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-icon-s-custom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuManage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-icon-user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-icon-menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息请求路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin-oauth2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/menu/**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单请求路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin-router</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/User.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/UserList.vue</t>
+  </si>
+  <si>
+    <t>news</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/news</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/News.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/MenuList.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"country":"CN","country_code":"086"}</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blog:read,blog:write,base:read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base:read,base:write,base:all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base:read,base:write,base:all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -429,225 +595,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>el-icon-lx-home</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>admin-menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-icon-s-custom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuManage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-icon-user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-icon-menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息请求路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin-oauth2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/common/**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/common/**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共请求路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/menu/**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单请求路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin-router</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/Home.vue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/Index.vue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/User.vue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/UserList.vue</t>
-  </si>
-  <si>
-    <t>news</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/news</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/News.vue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/MenuList.vue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"country":"CN","country_code":"086"}</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base:read,base:write</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blog:read,blog:write,base:read</t>
+    <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1197,16 +1153,16 @@
         <v>29</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="N3" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASS_WORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"',null,'",F3,"','",G3,"','",H3,"','",I3,"','",J3,"','",K3,"','",L3,"','",M3,"',now(),now());")</f>
@@ -1224,16 +1180,16 @@
         <v>29</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="N4" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASS_WORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('
@@ -1413,9 +1369,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1509,16 +1465,16 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>74</v>
@@ -1530,17 +1486,17 @@
         <v>76</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="L3" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",",I3,",'",J3,"','",K3,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-base','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base:read,base:write','authorization_code,password,client_credentials,implicit,refresh_token','https://www.baidu.com','',3600,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-base','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base:read,base:write,base:all','authorization_code,password,client_credentials,implicit,refresh_token','https://www.baidu.com','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1554,7 +1510,7 @@
         <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>74</v>
@@ -1566,17 +1522,17 @@
         <v>76</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="L4" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"',",H4,",",I4,",'",J4,"','",K4,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog','my-blog','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','blog:read,blog:write,base:read','authorization_code,password,client_credentials,implicit,refresh_token','https://www.baidu.com','',3600,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog','my-blog','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','blog:read,blog:write,base:read','authorization_code,password,client_credentials,implicit,refresh_token','https://www.baidu.com','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
       </c>
     </row>
   </sheetData>
@@ -1591,11 +1547,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1614,37 +1570,37 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A1" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>64</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>25</v>
@@ -1652,52 +1608,52 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
@@ -1706,28 +1662,28 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K3" s="9">
         <v>0</v>
       </c>
       <c r="L3" t="str">
         <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F3,"' AND M.MODULE='",J3,"'),'",G3,"',",IF(H3="","null",H3),",'",I3,"','",J3,"','",K3,"',now(),now());")</f>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('home','/home','首页','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-lx-home',1,'1','admin-menu','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('index','/home','首页','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-lx-home',1,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H4" s="9">
         <v>2</v>
@@ -1736,28 +1692,28 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K4" s="9">
         <v>0</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L4:L15" si="0">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F4,"' AND M.MODULE='",J4,"'),'",G4,"',",IF(H4="","null",H4),",'",I4,"','",J4,"','",K4,"',now(),now());")</f>
+        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F4,"' AND M.MODULE='",J4,"'),'",G4,"',",IF(H4="","null",H4),",'",I4,"','",J4,"','",K4,"',now(),now());")</f>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userInfo','/user','个人中心','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-s-custom',2,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="G5" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H5" s="9">
         <v>3</v>
@@ -1766,28 +1722,28 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K5" s="9">
         <v>0</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L5:L12" si="0">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A5,"','",B5,"','",C5,"','",D5,"','",E5,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F5,"' AND M.MODULE='",J5,"'),'",G5,"',",IF(H5="","null",H5),",'",I5,"','",J5,"','",K5,"',now(),now());")</f>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userList','/users','用户列表','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-user',3,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H6" s="9">
         <v>4</v>
@@ -1796,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K6" s="9">
         <v>0</v>
@@ -1808,275 +1764,176 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="I7" s="9">
         <v>2</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/user/**','/user/**','用户信息请求路径','','all',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-oauth2'),'',null,'2','admin-oauth2','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/user/**','/user/**','用户信息请求路径','','base:read,base:write,base:all',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-oauth2'),'',null,'2','admin-oauth2','0',now(),now());</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="I8" s="9">
         <v>2</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K8" s="9">
         <v>0</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/common/**','/common/**','公共请求路径','','all',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-oauth2'),'',null,'2','admin-oauth2','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/menu/**','/menu/**','菜单请求路径','','base:read,base:write,base:all',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-oauth2'),'',null,'2','admin-oauth2','0',now(),now());</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2</v>
       </c>
       <c r="I9" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K9" s="9">
         <v>0</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/menu/**','/menu/**','菜单请求路径','','all',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-oauth2'),'',null,'2','admin-oauth2','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('user','/user','个人中心','admin/User.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',2,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
       </c>
       <c r="H10" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="9">
         <v>3</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K10" s="9">
         <v>0</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('main','/','','admin/Home.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',0,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('users','/users','用户列表','admin/UserList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',3,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="H11" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" s="9">
         <v>3</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K11" s="9">
         <v>0</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('index','/home','首页','admin/Index.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='main' AND M.MODULE='admin-router'),'',1,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('news','/news','消息中心','admin/News.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',4,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="H12" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I12" s="9">
         <v>3</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('user','/user','个人中心','admin/User.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='main' AND M.MODULE='admin-router'),'',2,'3','admin-router','0',now(),now());</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H13" s="9">
-        <v>3</v>
-      </c>
-      <c r="I13" s="9">
-        <v>3</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('users','/users','用户列表','admin/UserList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='main' AND M.MODULE='admin-router'),'',3,'3','admin-router','0',now(),now());</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H14" s="9">
-        <v>4</v>
-      </c>
-      <c r="I14" s="9">
-        <v>3</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('news','/news','消息中心','admin/News.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='main' AND M.MODULE='admin-router'),'',4,'3','admin-router','0',now(),now());</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" s="9">
-        <v>5</v>
-      </c>
-      <c r="I15" s="9">
-        <v>3</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu','/menu','菜单管理','admin/MenuList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='main' AND M.MODULE='admin-router'),'',5,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu','/menu','菜单管理','admin/MenuList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',5,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
   </sheetData>
@@ -2091,11 +1948,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2110,10 +1967,10 @@
         <v>44</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>25</v>
@@ -2124,10 +1981,10 @@
         <v>45</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="12"/>
     </row>
@@ -2136,14 +1993,14 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D3" t="str">
-        <f>CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A3,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C3,"' AND MODULE='",B3,"'),now(),now());")</f>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='main' AND MODULE='admin-router'),now(),now());</v>
+        <f t="shared" ref="D3:D17" si="0">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A3,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C3,"' AND MODULE='",B3,"'),now(),now());")</f>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='user' AND MODULE='admin-router'),now(),now());</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2151,14 +2008,14 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D22" si="0">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A4,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C4,"' AND MODULE='",B4,"'),now(),now());")</f>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='index' AND MODULE='admin-router'),now(),now());</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='users' AND MODULE='admin-router'),now(),now());</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2166,14 +2023,14 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>132</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='user' AND MODULE='admin-router'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='news' AND MODULE='admin-router'),now(),now());</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2181,252 +2038,177 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='users' AND MODULE='admin-router'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menu' AND MODULE='admin-router'),now(),now());</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='news' AND MODULE='admin-router'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='user' AND MODULE='admin-router'),now(),now());</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>144</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menu' AND MODULE='admin-router'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='news' AND MODULE='admin-router'),now(),now());</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='main' AND MODULE='admin-router'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='index' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='index' AND MODULE='admin-router'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='userInfo' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='user' AND MODULE='admin-router'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='userList' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='news' AND MODULE='admin-router'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menuManage' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='home' AND MODULE='admin-menu'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='index' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='userInfo' AND MODULE='admin-menu'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='userInfo' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
-        <v>103</v>
+      <c r="B15" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='userList' AND MODULE='admin-menu'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='/user/**' AND MODULE='admin-oauth2'),now(),now());</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
-        <v>103</v>
+      <c r="B16" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menuManage' AND MODULE='admin-menu'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='/menu/**' AND MODULE='admin-oauth2'),now(),now());</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
-        <v>103</v>
+      <c r="B17" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='home' AND MODULE='admin-menu'),now(),now());</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='userInfo' AND MODULE='admin-menu'),now(),now());</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='/user/**' AND MODULE='admin-oauth2'),now(),now());</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='/common/**' AND MODULE='admin-oauth2'),now(),now());</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='/menu/**' AND MODULE='admin-oauth2'),now(),now());</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='/user/**' AND MODULE='admin-oauth2'),now(),now());</v>
       </c>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SYS_USER" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="147">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -604,6 +604,10 @@
   </si>
   <si>
     <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-base</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1549,9 +1553,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L12"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1779,14 +1783,14 @@
         <v>2</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/user/**','/user/**','用户信息请求路径','','base:read,base:write,base:all',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-oauth2'),'',null,'2','admin-oauth2','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/user/**','/user/**','用户信息请求路径','','base:read,base:write,base:all',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1806,14 +1810,14 @@
         <v>2</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="K8" s="9">
         <v>0</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/menu/**','/menu/**','菜单请求路径','','base:read,base:write,base:all',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-oauth2'),'',null,'2','admin-oauth2','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/menu/**','/menu/**','菜单请求路径','','base:read,base:write,base:all',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1950,7 +1954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
     </sheetView>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SYS_USER" sheetId="1" r:id="rId1"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PASS_WORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PHONE_NUM</t>
   </si>
   <si>
@@ -312,10 +308,6 @@
   </si>
   <si>
     <t>authorization_code,password,client_credentials,implicit,refresh_token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.baidu.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -608,6 +600,14 @@
   </si>
   <si>
     <t>my-base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:80/home</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1042,7 +1042,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1074,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -1098,10 +1098,10 @@
         <v>10</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1">
@@ -1112,94 +1112,92 @@
         <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N3" t="str">
-        <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASS_WORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"',null,'",F3,"','",G3,"','",H3,"','",I3,"','",J3,"','",K3,"','",L3,"','",M3,"',now(),now());")</f>
-        <v>INSERT INTO SYS_USER (USER_ID,USER_NAME,PASS_WORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('admin','超级管理员','$2a$10$.jycUozQpxha24tWaUGwFOKMI.BpZk1jw1vqydu7Q.uAnvc9wkVwy','',null,'','','','','1','1','1','1',now(),now());</v>
+        <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASSWORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"',null,'",F3,"','",G3,"','",H3,"','",I3,"','",J3,"','",K3,"','",L3,"','",M3,"',now(),now());")</f>
+        <v>INSERT INTO SYS_USER (USER_ID,USER_NAME,PASSWORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('admin','超级管理员','$2a$10$.jycUozQpxha24tWaUGwFOKMI.BpZk1jw1vqydu7Q.uAnvc9wkVwy','',null,'','','','','1','1','1','1',now(),now());</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N4" t="str">
-        <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASS_WORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('
-",A4,"','",B4,"','",C4,"','",D4,"',null,'",F4,"','",G4,"','",H4,"','",I4,"','",J4,"','",K4,"','",L4,"','",M4,"',now(),now());")</f>
-        <v>INSERT INTO SYS_USER (USER_ID,USER_NAME,PASS_WORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('
-www','wenzday','$2a$10$.jycUozQpxha24tWaUGwFOKMI.BpZk1jw1vqydu7Q.uAnvc9wkVwy','',null,'','','','','1','1','1','1',now(),now());</v>
+        <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASSWORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"',null,'",F4,"','",G4,"','",H4,"','",I4,"','",J4,"','",K4,"','",L4,"','",M4,"',now(),now());")</f>
+        <v>INSERT INTO SYS_USER (USER_ID,USER_NAME,PASSWORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('www','wenzday','$2a$10$.jycUozQpxha24tWaUGwFOKMI.BpZk1jw1vqydu7Q.uAnvc9wkVwy','',null,'','','','','1','1','1','1',now(),now());</v>
       </c>
     </row>
     <row r="19" spans="12:12">
@@ -1225,7 +1223,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1236,30 +1234,30 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="C1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
         <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
       </c>
       <c r="C3" t="str">
         <f>CONCATENATE("INSERT INTO SYS_ROLE (ROLE_CODE,ROLE_NAME,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"',now(),now());")</f>
@@ -1268,10 +1266,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
       </c>
       <c r="C4" t="str">
         <f>CONCATENATE("INSERT INTO SYS_ROLE (ROLE_CODE,ROLE_NAME,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"',now(),now());")</f>
@@ -1280,10 +1278,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
       </c>
       <c r="C5" t="str">
         <f>CONCATENATE("INSERT INTO SYS_ROLE (ROLE_CODE,ROLE_NAME,UPDATE_TIME,CREATE_TIME) VALUES('",A5,"','",B5,"',now(),now());")</f>
@@ -1306,7 +1304,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1317,30 +1315,30 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="C1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER_ROLE (SU_ID, ROLE_ID,UPDATE_TIME,CREATE_TIME) VALUES (","(select c.SU_ID from SYS_USER c where c.USER_ID='",A3,"'), "," (select c.ROLE_ID from sys_role c where c.ROLE_CODE='",B3,"'),now(),now());")</f>
@@ -1349,10 +1347,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
         <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
       </c>
       <c r="C4" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER_ROLE (SU_ID, ROLE_ID,UPDATE_TIME,CREATE_TIME) VALUES (","(select c.SU_ID from SYS_USER c where c.USER_ID='",A4,"'), "," (select c.ROLE_ID from sys_role c where c.ROLE_CODE='",B4,"'),now(),now());")</f>
@@ -1375,7 +1373,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1395,148 +1393,148 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40.5">
       <c r="A1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="L1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40.5">
       <c r="A2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L3" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",",I3,",'",J3,"','",K3,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-base','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base:read,base:write,base:all','authorization_code,password,client_credentials,implicit,refresh_token','https://www.baidu.com','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-base','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base:read,base:write,base:all','authorization_code,password,client_credentials,implicit,refresh_token','http://localhost:80/home','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L4" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"',",H4,",",I4,",'",J4,"','",K4,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog','my-blog','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','blog:read,blog:write,base:read','authorization_code,password,client_credentials,implicit,refresh_token','https://www.baidu.com','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog','my-blog','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','blog:read,blog:write,base:read','authorization_code,password,client_credentials,implicit,refresh_token','http://localhost:80/home','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
       </c>
     </row>
   </sheetData>
@@ -1553,9 +1551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1574,90 +1572,90 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A1" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
@@ -1666,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K3" s="9">
         <v>0</v>
@@ -1678,16 +1676,16 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="H4" s="9">
         <v>2</v>
@@ -1696,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K4" s="9">
         <v>0</v>
@@ -1708,16 +1706,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H5" s="9">
         <v>3</v>
@@ -1726,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K5" s="9">
         <v>0</v>
@@ -1738,16 +1736,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>106</v>
-      </c>
       <c r="C6" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H6" s="9">
         <v>4</v>
@@ -1756,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K6" s="9">
         <v>0</v>
@@ -1768,22 +1766,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I7" s="9">
         <v>2</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
@@ -1795,22 +1793,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I8" s="9">
         <v>2</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K8" s="9">
         <v>0</v>
@@ -1822,16 +1820,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="H9" s="9">
         <v>2</v>
@@ -1840,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K9" s="9">
         <v>0</v>
@@ -1852,16 +1850,16 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="D10" t="s">
         <v>122</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" t="s">
-        <v>124</v>
       </c>
       <c r="H10" s="9">
         <v>3</v>
@@ -1870,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K10" s="9">
         <v>0</v>
@@ -1882,16 +1880,16 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="H11" s="9">
         <v>4</v>
@@ -1900,7 +1898,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K11" s="9">
         <v>0</v>
@@ -1912,16 +1910,16 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>132</v>
       </c>
       <c r="H12" s="9">
         <v>5</v>
@@ -1930,7 +1928,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
@@ -1954,9 +1952,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
+      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1968,39 +1966,39 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D17" si="0">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A3,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C3,"' AND MODULE='",B3,"'),now(),now());")</f>
@@ -2009,13 +2007,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -2024,13 +2022,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -2039,13 +2037,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -2054,13 +2052,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -2069,13 +2067,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -2084,13 +2082,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -2099,13 +2097,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2114,13 +2112,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -2129,13 +2127,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -2144,13 +2142,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -2159,13 +2157,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -2174,13 +2172,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -2189,13 +2187,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -2204,13 +2202,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,30 +4,32 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="SYS_USER" sheetId="1" r:id="rId1"/>
-    <sheet name="SYS_ROLE" sheetId="2" r:id="rId2"/>
-    <sheet name="SYS_USER_ROLE" sheetId="3" r:id="rId3"/>
-    <sheet name="OAUTH_CLIENT_DETAILS" sheetId="4" r:id="rId4"/>
-    <sheet name="SYS_MENU" sheetId="5" r:id="rId5"/>
-    <sheet name="SYS_ROLE_MENU" sheetId="6" r:id="rId6"/>
+    <sheet name="CODE_DATA" sheetId="7" r:id="rId1"/>
+    <sheet name="SYS_USER" sheetId="1" r:id="rId2"/>
+    <sheet name="SYS_ROLE" sheetId="2" r:id="rId3"/>
+    <sheet name="SYS_USER_ROLE" sheetId="3" r:id="rId4"/>
+    <sheet name="OAUTH_CLIENT_DETAILS" sheetId="4" r:id="rId5"/>
+    <sheet name="SYS_MENU" sheetId="5" r:id="rId6"/>
+    <sheet name="SYS_ROLE_MENU" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">OAUTH_CLIENT_DETAILS!$A$2:$K$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">SYS_MENU!$A$2:$K$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SYS_ROLE!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">SYS_ROLE_MENU!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SYS_USER!$A$2:$M$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SYS_USER_ROLE!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CODE_DATA!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">OAUTH_CLIENT_DETAILS!$A$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">SYS_MENU!$A$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SYS_ROLE!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">SYS_ROLE_MENU!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SYS_USER!$A$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SYS_USER_ROLE!$A$2:$B$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="181">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -608,6 +610,142 @@
   </si>
   <si>
     <t>http://localhost:80/home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code的key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>码值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>码值名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_VALID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有效，1有效，0无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yesNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否指示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1038,11 +1176,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f>CONCATENATE("INSERT INTO CODE_DATA (CODE_TYPE,CODE_NAME,CODE_KEY,CODE_VALUE,VALUE_NAME,IS_VALID) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"');")</f>
+        <v>INSERT INTO CODE_DATA (CODE_TYPE,CODE_NAME,CODE_KEY,CODE_VALUE,VALUE_NAME,IS_VALID) VALUES('menuType','菜单类型','K1','1','目录菜单','1');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G13" si="0">CONCATENATE("INSERT INTO CODE_DATA (CODE_TYPE,CODE_NAME,CODE_KEY,CODE_VALUE,VALUE_NAME,IS_VALID) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"');")</f>
+        <v>INSERT INTO CODE_DATA (CODE_TYPE,CODE_NAME,CODE_KEY,CODE_VALUE,VALUE_NAME,IS_VALID) VALUES('menuType','菜单类型','K2','2','请求路径','1');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CODE_DATA (CODE_TYPE,CODE_NAME,CODE_KEY,CODE_VALUE,VALUE_NAME,IS_VALID) VALUES('menuType','菜单类型','K3','3','vue路由','1');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CODE_DATA (CODE_TYPE,CODE_NAME,CODE_KEY,CODE_VALUE,VALUE_NAME,IS_VALID) VALUES('sex','性别','K0','0','女','1');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CODE_DATA (CODE_TYPE,CODE_NAME,CODE_KEY,CODE_VALUE,VALUE_NAME,IS_VALID) VALUES('sex','性别','K1','1','男','1');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CODE_DATA (CODE_TYPE,CODE_NAME,CODE_KEY,CODE_VALUE,VALUE_NAME,IS_VALID) VALUES('yesNo','是否指示器','K0','0','否','1');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CODE_DATA (CODE_TYPE,CODE_NAME,CODE_KEY,CODE_VALUE,VALUE_NAME,IS_VALID) VALUES('yesNo','是否指示器','K1','1','是','1');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CODE_DATA (CODE_TYPE,CODE_NAME,CODE_KEY,CODE_VALUE,VALUE_NAME,IS_VALID) VALUES('userStatus','用户状态','K1','1','有效','1');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CODE_DATA (CODE_TYPE,CODE_NAME,CODE_KEY,CODE_VALUE,VALUE_NAME,IS_VALID) VALUES('userStatus','用户状态','K2','2','注销','1');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CODE_DATA (CODE_TYPE,CODE_NAME,CODE_KEY,CODE_VALUE,VALUE_NAME,IS_VALID) VALUES('userStatus','用户状态','K3','3','封号','1');</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:F2"/>
+  <mergeCells count="1">
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1217,7 +1667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1298,7 +1748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1367,7 +1817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -1547,13 +1997,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L12"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1948,13 +2398,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CODE_DATA" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="183">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,10 +609,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://localhost:80/home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>code类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -746,6 +742,18 @@
   </si>
   <si>
     <t>封号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.130:80/home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-base-dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://locahost:80/home</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1178,9 +1186,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1194,22 +1202,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>24</v>
@@ -1217,40 +1225,40 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
         <v>159</v>
       </c>
-      <c r="B3" t="s">
-        <v>160</v>
-      </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1262,43 +1270,43 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" t="s">
         <v>159</v>
       </c>
-      <c r="B4" t="s">
-        <v>160</v>
-      </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G13" si="0">CONCATENATE("INSERT INTO CODE_DATA (CODE_TYPE,CODE_NAME,CODE_KEY,CODE_VALUE,VALUE_NAME,IS_VALID) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"');")</f>
+        <f t="shared" ref="G4:G12" si="0">CONCATENATE("INSERT INTO CODE_DATA (CODE_TYPE,CODE_NAME,CODE_KEY,CODE_VALUE,VALUE_NAME,IS_VALID) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"');")</f>
         <v>INSERT INTO CODE_DATA (CODE_TYPE,CODE_NAME,CODE_KEY,CODE_VALUE,VALUE_NAME,IS_VALID) VALUES('menuType','菜单类型','K2','2','请求路径','1');</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" t="s">
         <v>159</v>
       </c>
-      <c r="B5" t="s">
-        <v>160</v>
-      </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1310,19 +1318,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1334,19 +1342,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1358,19 +1366,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" t="s">
         <v>162</v>
       </c>
-      <c r="B8" t="s">
-        <v>163</v>
-      </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1382,19 +1390,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" t="s">
         <v>162</v>
       </c>
-      <c r="B9" t="s">
-        <v>163</v>
-      </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1406,19 +1414,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" t="s">
         <v>164</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>165</v>
-      </c>
-      <c r="C10" t="s">
-        <v>166</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1430,19 +1438,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" t="s">
         <v>164</v>
       </c>
-      <c r="B11" t="s">
-        <v>165</v>
-      </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1454,19 +1462,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" t="s">
         <v>164</v>
       </c>
-      <c r="B12" t="s">
-        <v>165</v>
-      </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1492,7 +1500,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1754,7 +1762,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C3:C4"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1819,11 +1827,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L4"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1932,7 +1940,7 @@
         <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>74</v>
@@ -1948,7 +1956,7 @@
       </c>
       <c r="L3" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",",I3,",'",J3,"','",K3,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-base','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base:read,base:write,base:all','authorization_code,password,client_credentials,implicit,refresh_token','http://localhost:80/home','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-base','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base:read,base:write,base:all','authorization_code,password,client_credentials,implicit,refresh_token','http://192.168.1.130:80/home','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1968,7 +1976,7 @@
         <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>74</v>
@@ -1984,7 +1992,43 @@
       </c>
       <c r="L4" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"',",H4,",",I4,",'",J4,"','",K4,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog','my-blog','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','blog:read,blog:write,base:read','authorization_code,password,client_credentials,implicit,refresh_token','http://localhost:80/home','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog','my-blog','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','blog:read,blog:write,base:read','authorization_code,password,client_credentials,implicit,refresh_token','http://192.168.1.130:80/home','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" t="str">
+        <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A5,"','",B5,"','",C5,"','",D5,"','",E5,"','",F5,"','",G5,"',",H5,",",I5,",'",J5,"','",K5,"',now(),now());")</f>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-base-dev','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base:read,base:write,base:all','authorization_code,password,client_credentials,implicit,refresh_token','http://locahost:80/home','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
       </c>
     </row>
   </sheetData>
@@ -2003,7 +2047,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2402,9 +2446,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CODE_DATA" sheetId="7" r:id="rId1"/>
@@ -753,7 +753,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://locahost:80/home</t>
+    <t>http://localhost:80/home</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1829,9 +1829,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L5"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="L5" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A5,"','",B5,"','",C5,"','",D5,"','",E5,"','",F5,"','",G5,"',",H5,",",I5,",'",J5,"','",K5,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-base-dev','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base:read,base:write,base:all','authorization_code,password,client_credentials,implicit,refresh_token','http://locahost:80/home','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-base-dev','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base:read,base:write,base:all','authorization_code,password,client_credentials,implicit,refresh_token','http://localhost:80/home','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
       </c>
     </row>
   </sheetData>
@@ -2446,7 +2446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CODE_DATA" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="187">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -754,6 +754,22 @@
   </si>
   <si>
     <t>http://localhost:80/home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-base-test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-blog-test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://39.108.61.181:8000/home</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1827,11 +1843,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1925,7 +1941,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>135</v>
@@ -1956,12 +1972,12 @@
       </c>
       <c r="L3" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",",I3,",'",J3,"','",K3,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-base','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base:read,base:write,base:all','authorization_code,password,client_credentials,implicit,refresh_token','http://192.168.1.130:80/home','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-base-test','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base:read,base:write,base:all','authorization_code,password,client_credentials,implicit,refresh_token','http://192.168.1.130:80/home','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>71</v>
@@ -1992,7 +2008,7 @@
       </c>
       <c r="L4" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"',",H4,",",I4,",'",J4,"','",K4,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog','my-blog','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','blog:read,blog:write,base:read','authorization_code,password,client_credentials,implicit,refresh_token','http://192.168.1.130:80/home','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog-test','my-blog','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','blog:read,blog:write,base:read','authorization_code,password,client_credentials,implicit,refresh_token','http://192.168.1.130:80/home','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2029,6 +2045,42 @@
       <c r="L5" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A5,"','",B5,"','",C5,"','",D5,"','",E5,"','",F5,"','",G5,"',",H5,",",I5,",'",J5,"','",K5,"',now(),now());")</f>
         <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-base-dev','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base:read,base:write,base:all','authorization_code,password,client_credentials,implicit,refresh_token','http://localhost:80/home','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" t="str">
+        <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A6,"','",B6,"','",C6,"','",D6,"','",E6,"','",F6,"','",G6,"',",H6,",",I6,",'",J6,"','",K6,"',now(),now());")</f>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-base','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base:read,base:write,base:all','authorization_code,password,client_credentials,implicit,refresh_token','http://39.108.61.181:8000/home','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
       </c>
     </row>
   </sheetData>
@@ -2446,9 +2498,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CODE_DATA" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="189">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -765,11 +765,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>my-base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://39.108.61.181:8000/home</t>
+    <t>http://192.168.1.130:80/blog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-blog-dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-blog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:80/blog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1845,9 +1853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L6"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1992,7 +2000,7 @@
         <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>74</v>
@@ -2008,7 +2016,7 @@
       </c>
       <c r="L4" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"',",H4,",",I4,",'",J4,"','",K4,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog-test','my-blog','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','blog:read,blog:write,base:read','authorization_code,password,client_credentials,implicit,refresh_token','http://192.168.1.130:80/home','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog-test','my-blog','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','blog:read,blog:write,base:read','authorization_code,password,client_credentials,implicit,refresh_token','http://192.168.1.130:80/blog','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2049,10 +2057,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>72</v>
@@ -2064,7 +2072,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>74</v>
@@ -2080,7 +2088,7 @@
       </c>
       <c r="L6" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A6,"','",B6,"','",C6,"','",D6,"','",E6,"','",F6,"','",G6,"',",H6,",",I6,",'",J6,"','",K6,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-base','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base:read,base:write,base:all','authorization_code,password,client_credentials,implicit,refresh_token','http://39.108.61.181:8000/home','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog-dev','my-blog','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base:read,base:write,base:all','authorization_code,password,client_credentials,implicit,refresh_token','http://localhost:80/blog','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
       </c>
     </row>
   </sheetData>
@@ -2498,9 +2506,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D17"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CODE_DATA" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="177">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,10 +299,6 @@
   </si>
   <si>
     <t>是否跳转授权页面</t>
-  </si>
-  <si>
-    <t>my-blog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO</t>
@@ -415,369 +411,325 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>userList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuManage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-icon-user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-icon-menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息请求路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin-oauth2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/menu/**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单请求路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin-router</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/User.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/UserList.vue</t>
+  </si>
+  <si>
+    <t>news</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/news</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/News.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/MenuList.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"country":"CN","country_code":"086"}</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blog:read,blog:write,base:read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base:read,base:write,base:all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code的key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>码值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>码值名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_VALID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有效，1有效，0无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yesNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否指示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-blog-test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.130:80/blog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-blog-dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>userInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>el-icon-s-custom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuManage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-icon-user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-icon-menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息请求路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin-oauth2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/menu/**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单请求路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin-router</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/User.vue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/UserList.vue</t>
-  </si>
-  <si>
-    <t>news</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/news</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/News.vue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/MenuList.vue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"country":"CN","country_code":"086"}</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blog:read,blog:write,base:read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base:read,base:write,base:all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base:read,base:write,base:all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-icon-lx-home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE_KEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code的key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>码值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VALUE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>码值名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_VALID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有效，1有效，0无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yesNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否指示器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vue路由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.130:80/home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-base-dev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:80/home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-base-test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-blog-test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.130:80/blog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-blog-dev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-blog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:80/blog</t>
+    <t>userInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-blog,my-base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-blog,my-base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:80/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1226,22 +1178,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>24</v>
@@ -1249,40 +1201,40 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1294,19 +1246,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1318,19 +1270,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1342,19 +1294,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1366,19 +1318,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1390,19 +1342,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1414,19 +1366,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1438,19 +1390,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1462,19 +1414,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1486,19 +1438,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1594,7 +1546,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>13</v>
@@ -1639,16 +1591,16 @@
         <v>28</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="N3" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASSWORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"',null,'",F3,"','",G3,"','",H3,"','",I3,"','",J3,"','",K3,"','",L3,"','",M3,"',now(),now());")</f>
@@ -1666,16 +1618,16 @@
         <v>28</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N4" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASSWORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"',null,'",F4,"','",G4,"','",H4,"','",I4,"','",J4,"','",K4,"','",L4,"','",M4,"',now(),now());")</f>
@@ -1851,11 +1803,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1949,146 +1901,74 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L3" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",",I3,",'",J3,"','",K3,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-base-test','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base:read,base:write,base:all','authorization_code,password,client_credentials,implicit,refresh_token','http://192.168.1.130:80/home','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog-test','my-blog,my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','blog:read,blog:write,base:read','authorization_code,password,client_credentials,implicit,refresh_token','http://192.168.1.130:80/blog','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L4" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"',",H4,",",I4,",'",J4,"','",K4,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog-test','my-blog','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','blog:read,blog:write,base:read','authorization_code,password,client_credentials,implicit,refresh_token','http://192.168.1.130:80/blog','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="L5" t="str">
-        <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A5,"','",B5,"','",C5,"','",D5,"','",E5,"','",F5,"','",G5,"',",H5,",",I5,",'",J5,"','",K5,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-base-dev','my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base:read,base:write,base:all','authorization_code,password,client_credentials,implicit,refresh_token','http://localhost:80/home','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" t="s">
-        <v>188</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="L6" t="str">
-        <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A6,"','",B6,"','",C6,"','",D6,"','",E6,"','",F6,"','",G6,"',",H6,",",I6,",'",J6,"','",K6,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog-dev','my-blog','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base:read,base:write,base:all','authorization_code,password,client_credentials,implicit,refresh_token','http://localhost:80/blog','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog-dev','my-blog,my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base:read,base:write,base:all','authorization_code,password,client_credentials,implicit,refresh_token','http://localhost:80/index','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
       </c>
     </row>
   </sheetData>
@@ -2103,11 +1983,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L12"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2126,37 +2006,37 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A1" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>24</v>
@@ -2164,52 +2044,52 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
@@ -2218,28 +2098,28 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K3" s="9">
         <v>0</v>
       </c>
       <c r="L3" t="str">
-        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F3,"' AND M.MODULE='",J3,"'),'",G3,"',",IF(H3="","null",H3),",'",I3,"','",J3,"','",K3,"',now(),now());")</f>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('index','/home','首页','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-lx-home',1,'1','admin-menu','0',now(),now());</v>
+        <f t="shared" ref="L3:L11" si="0">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F3,"' AND M.MODULE='",J3,"'),'",G3,"',",IF(H3="","null",H3),",'",I3,"','",J3,"','",K3,"',now(),now());")</f>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userInfo','/user','个人中心','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-s-custom',1,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H4" s="9">
         <v>2</v>
@@ -2248,28 +2128,28 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K4" s="9">
         <v>0</v>
       </c>
       <c r="L4" t="str">
-        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F4,"' AND M.MODULE='",J4,"'),'",G4,"',",IF(H4="","null",H4),",'",I4,"','",J4,"','",K4,"',now(),now());")</f>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userInfo','/user','个人中心','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-s-custom',2,'1','admin-menu','0',now(),now());</v>
+        <f t="shared" ref="L4" si="1">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F4,"' AND M.MODULE='",J4,"'),'",G4,"',",IF(H4="","null",H4),",'",I4,"','",J4,"','",K4,"',now(),now());")</f>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userList','/users','用户列表','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-user',2,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="H5" s="9">
         <v>3</v>
@@ -2278,19 +2158,19 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K5" s="9">
         <v>0</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" ref="L5:L12" si="0">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A5,"','",B5,"','",C5,"','",D5,"','",E5,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F5,"' AND M.MODULE='",J5,"'),'",G5,"',",IF(H5="","null",H5),",'",I5,"','",J5,"','",K5,"',now(),now());")</f>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userList','/users','用户列表','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-user',3,'1','admin-menu','0',now(),now());</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menuManage','/menu','菜单管理','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-menu',3,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>104</v>
@@ -2298,196 +2178,166 @@
       <c r="C6" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="9">
-        <v>4</v>
+      <c r="E6" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="I6" s="9">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>96</v>
+        <v>2</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="K6" s="9">
         <v>0</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menuManage','/menu','菜单管理','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-menu',4,'1','admin-menu','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/user/**','/user/**','用户信息请求路径','','base:read,base:write,base:all',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I7" s="9">
         <v>2</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/user/**','/user/**','用户信息请求路径','','base:read,base:write,base:all',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/menu/**','/menu/**','菜单请求路径','','base:read,base:write,base:all',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>137</v>
+      <c r="H8" s="9">
+        <v>2</v>
       </c>
       <c r="I8" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="K8" s="9">
         <v>0</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/menu/**','/menu/**','菜单请求路径','','base:read,base:write,base:all',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userInfo','/user','个人中心','admin/User.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',2,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="D9" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="H9" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="9">
         <v>3</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K9" s="9">
         <v>0</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('user','/user','个人中心','admin/User.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',2,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('users','/users','用户列表','admin/UserList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',3,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" t="s">
-        <v>122</v>
-      </c>
       <c r="H10" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="9">
         <v>3</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K10" s="9">
         <v>0</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('users','/users','用户列表','admin/UserList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',3,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('news','/news','消息中心','admin/News.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',4,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="H11" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11" s="9">
         <v>3</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K11" s="9">
         <v>0</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('news','/news','消息中心','admin/News.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',4,'3','admin-router','0',now(),now());</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="9">
-        <v>5</v>
-      </c>
-      <c r="I12" s="9">
-        <v>3</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu','/menu','菜单管理','admin/MenuList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',5,'3','admin-router','0',now(),now());</v>
       </c>
@@ -2504,11 +2354,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
+      <selection pane="bottomLeft" activeCell="F20" activeCellId="1" sqref="C3 F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2523,10 +2373,10 @@
         <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>24</v>
@@ -2537,10 +2387,10 @@
         <v>44</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="12"/>
     </row>
@@ -2549,14 +2399,14 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D17" si="0">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A3,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C3,"' AND MODULE='",B3,"'),now(),now());")</f>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='user' AND MODULE='admin-router'),now(),now());</v>
+        <f t="shared" ref="D3:D15" si="0">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A3,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C3,"' AND MODULE='",B3,"'),now(),now());")</f>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='userInfo' AND MODULE='admin-router'),now(),now());</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2564,10 +2414,10 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -2579,10 +2429,10 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -2594,10 +2444,10 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -2609,14 +2459,14 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='user' AND MODULE='admin-router'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='userInfo' AND MODULE='admin-router'),now(),now());</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2624,10 +2474,10 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -2639,14 +2489,14 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='index' AND MODULE='admin-menu'),now(),now());</v>
+        <f t="shared" ref="D9" si="1">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A9,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C9,"' AND MODULE='",B9,"'),now(),now());")</f>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='userInfo' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2654,14 +2504,14 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='userInfo' AND MODULE='admin-menu'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='userList' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2669,102 +2519,72 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='userList' AND MODULE='admin-menu'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menuManage' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menuManage' AND MODULE='admin-menu'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='userInfo' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>96</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='index' AND MODULE='admin-menu'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='/user/**' AND MODULE='admin-oauth2'),now(),now());</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>96</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='userInfo' AND MODULE='admin-menu'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='/menu/**' AND MODULE='admin-oauth2'),now(),now());</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='/user/**' AND MODULE='admin-oauth2'),now(),now());</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='/menu/**' AND MODULE='admin-oauth2'),now(),now());</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='/user/**' AND MODULE='admin-oauth2'),now(),now());</v>
       </c>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CODE_DATA" sheetId="7" r:id="rId1"/>
@@ -541,14 +541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>blog:read,blog:write,base:read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base:read,base:write,base:all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>my-base</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -730,6 +722,14 @@
   </si>
   <si>
     <t>userInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blog:read,blog:write,base:read,base:write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base:read,base:write</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1178,22 +1178,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>24</v>
@@ -1201,40 +1201,40 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="C2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1246,19 +1246,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1270,19 +1270,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1294,19 +1294,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1318,19 +1318,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1342,19 +1342,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1366,19 +1366,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1390,19 +1390,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s">
         <v>150</v>
-      </c>
-      <c r="B10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" t="s">
-        <v>152</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1414,19 +1414,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s">
         <v>151</v>
-      </c>
-      <c r="C11" t="s">
-        <v>153</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1438,19 +1438,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1546,7 +1546,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>13</v>
@@ -1807,7 +1807,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1901,22 +1901,22 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>73</v>
@@ -1932,27 +1932,27 @@
       </c>
       <c r="L3" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",",I3,",'",J3,"','",K3,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog-test','my-blog,my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','blog:read,blog:write,base:read','authorization_code,password,client_credentials,implicit,refresh_token','http://192.168.1.130:80/blog','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog-test','my-blog,my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','blog:read,blog:write,base:read,base:write','authorization_code,password,client_credentials,implicit,refresh_token','http://192.168.1.130:80/blog','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>73</v>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="L4" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"',",H4,",",I4,",'",J4,"','",K4,"',now(),now());")</f>
-        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog-dev','my-blog,my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','base:read,base:write,base:all','authorization_code,password,client_credentials,implicit,refresh_token','http://localhost:80/index','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
+        <v>INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('my-blog-dev','my-blog,my-base','$2a$10$LHRecr6QgeDNU5WAHw6QCOgXRlhpuHyx9Gczyj0vv17kMcqjVctIO','blog:read,blog:write,base:read,base:write','authorization_code,password,client_credentials,implicit,refresh_token','http://localhost:80/index','',604800,604800,'{"country":"CN","country_code":"086"}','true',now(),now());</v>
       </c>
     </row>
   </sheetData>
@@ -1985,9 +1985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>110</v>
@@ -2089,7 +2089,7 @@
         <v>111</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
@@ -2179,20 +2179,20 @@
         <v>105</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="I6" s="9">
         <v>2</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K6" s="9">
         <v>0</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/user/**','/user/**','用户信息请求路径','','base:read,base:write,base:all',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/user/**','/user/**','用户信息请求路径','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2206,25 +2206,25 @@
         <v>108</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="I7" s="9">
         <v>2</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/menu/**','/menu/**','菜单请求路径','','base:read,base:write,base:all',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/menu/**','/menu/**','菜单请求路径','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>110</v>
@@ -2356,7 +2356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F20" activeCellId="1" sqref="C3 F20"/>
     </sheetView>
@@ -2402,7 +2402,7 @@
         <v>109</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D15" si="0">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A3,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C3,"' AND MODULE='",B3,"'),now(),now());")</f>
@@ -2462,7 +2462,7 @@
         <v>109</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -2492,7 +2492,7 @@
         <v>95</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ref="D9" si="1">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A9,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C9,"' AND MODULE='",B9,"'),now(),now());")</f>
@@ -2537,7 +2537,7 @@
         <v>95</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="CODE_DATA" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="180">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -730,6 +730,18 @@
   </si>
   <si>
     <t>base:read,base:write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blogStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1160,11 +1172,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G12"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1458,6 +1470,54 @@
       <c r="G12" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CODE_DATA (CODE_TYPE,CODE_NAME,CODE_KEY,CODE_VALUE,VALUE_NAME,IS_VALID) VALUES('userStatus','用户状态','K3','3','封号','1');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ref="G13:G14" si="1">CONCATENATE("INSERT INTO CODE_DATA (CODE_TYPE,CODE_NAME,CODE_KEY,CODE_VALUE,VALUE_NAME,IS_VALID) VALUES('",A13,"','",B13,"','",C13,"','",D13,"','",E13,"','",F13,"');")</f>
+        <v>INSERT INTO CODE_DATA (CODE_TYPE,CODE_NAME,CODE_KEY,CODE_VALUE,VALUE_NAME,IS_VALID) VALUES('blogStatus','博客状态','K1','1','有效','1');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CODE_DATA (CODE_TYPE,CODE_NAME,CODE_KEY,CODE_VALUE,VALUE_NAME,IS_VALID) VALUES('blogStatus','博客状态','K2','2','删除','1');</v>
       </c>
     </row>
   </sheetData>
@@ -1985,7 +2045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CODE_DATA" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="186">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,6 +742,30 @@
   </si>
   <si>
     <t>博客状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/feign/**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blog:read,blog:write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-blog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base:read,base:write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-base</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1174,9 +1198,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2043,11 +2067,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2164,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L11" si="0">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F3,"' AND M.MODULE='",J3,"'),'",G3,"',",IF(H3="","null",H3),",'",I3,"','",J3,"','",K3,"',now(),now());")</f>
+        <f t="shared" ref="L3:L13" si="0">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F3,"' AND M.MODULE='",J3,"'),'",G3,"',",IF(H3="","null",H3),",'",I3,"','",J3,"','",K3,"',now(),now());")</f>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userInfo','/user','个人中心','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-s-custom',1,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
@@ -2400,6 +2424,60 @@
       <c r="L11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu','/menu','菜单管理','admin/MenuList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',5,'3','admin-router','0',now(),now());</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="I12" s="9">
+        <v>2</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" t="str">
+        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A12,"','",B12,"','",C12,"','",D12,"','",E13,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F12,"' AND M.MODULE='",J12,"'),'",G12,"',",IF(H12="","null",H12),",'",I12,"','",J12,"','",K12,"',now(),now());")</f>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/feign/**','/feign/**','服务接口','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I13" s="9">
+        <v>2</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" t="str">
+        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A13,"','",B13,"','",C13,"','",D13,"','",E12,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F13,"' AND M.MODULE='",J13,"'),'",G13,"',",IF(H13="","null",H13),",'",I13,"','",J13,"','",K13,"',now(),now());")</f>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/feign/**','/feign/**','服务接口','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
       </c>
     </row>
   </sheetData>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="198">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -766,6 +766,54 @@
   </si>
   <si>
     <t>my-base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/editor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布博客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blog/EditBlog.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editBlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/editor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuManage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editBlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-icon-document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2067,11 +2115,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2224,7 +2272,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>99</v>
@@ -2254,40 +2302,43 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>176</v>
+        <v>187</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4</v>
       </c>
       <c r="I6" s="9">
-        <v>2</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>129</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>95</v>
       </c>
       <c r="K6" s="9">
         <v>0</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/user/**','/user/**','用户信息请求路径','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('editBlog','/editor','发布博客','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-document',4,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>176</v>
@@ -2303,54 +2354,51 @@
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/menu/**','/menu/**','菜单请求路径','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/user/**','/user/**','用户信息请求路径','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="9">
+        <v>108</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I8" s="9">
         <v>2</v>
       </c>
-      <c r="I8" s="9">
-        <v>3</v>
-      </c>
       <c r="J8" s="9" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="K8" s="9">
         <v>0</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userInfo','/user','个人中心','admin/User.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',2,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/menu/**','/menu/**','菜单请求路径','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="H9" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="9">
         <v>3</v>
@@ -2363,24 +2411,24 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('users','/users','用户列表','admin/UserList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',3,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userInfo','/user','个人中心','admin/User.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',2,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
       </c>
       <c r="H10" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" s="9">
         <v>3</v>
@@ -2393,24 +2441,24 @@
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('news','/news','消息中心','admin/News.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',4,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('users','/users','用户列表','admin/UserList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',3,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H11" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="9">
         <v>3</v>
@@ -2423,61 +2471,126 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu','/menu','菜单管理','admin/MenuList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',5,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('news','/news','消息中心','admin/News.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',4,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" t="s">
-        <v>180</v>
+      <c r="A12" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>184</v>
+        <v>123</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="9">
+        <v>5</v>
       </c>
       <c r="I12" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
       </c>
       <c r="L12" t="str">
-        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A12,"','",B12,"','",C12,"','",D12,"','",E13,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F12,"' AND M.MODULE='",J12,"'),'",G12,"',",IF(H12="","null",H12),",'",I12,"','",J12,"','",K12,"',now(),now());")</f>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/feign/**','/feign/**','服务接口','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu','/menu','菜单管理','admin/MenuList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',5,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" t="s">
-        <v>180</v>
+      <c r="A13" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>186</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" s="9">
+        <v>6</v>
       </c>
       <c r="I13" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="K13" s="9">
         <v>0</v>
       </c>
       <c r="L13" t="str">
-        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A13,"','",B13,"','",C13,"','",D13,"','",E12,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F13,"' AND M.MODULE='",J13,"'),'",G13,"',",IF(H13="","null",H13),",'",I13,"','",J13,"','",K13,"',now(),now());")</f>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('editor','/editor','发布博客','blog/EditBlog.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',6,'3','admin-router','0',now(),now());</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="I14" s="9">
+        <v>2</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" t="str">
+        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A14,"','",B14,"','",C14,"','",D14,"','",E15,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F14,"' AND M.MODULE='",J14,"'),'",G14,"',",IF(H14="","null",H14),",'",I14,"','",J14,"','",K14,"',now(),now());")</f>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/feign/**','/feign/**','服务接口','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I15" s="9">
+        <v>2</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" t="str">
+        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A15,"','",B15,"','",C15,"','",D15,"','",E14,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F15,"' AND M.MODULE='",J15,"'),'",G15,"',",IF(H15="","null",H15),",'",I15,"','",J15,"','",K15,"',now(),now());")</f>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/feign/**','/feign/**','服务接口','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="9" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2492,11 +2605,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" activeCellId="1" sqref="C3 F20"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2543,7 +2656,7 @@
         <v>168</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D15" si="0">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A3,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C3,"' AND MODULE='",B3,"'),now(),now());")</f>
+        <f t="shared" ref="D3:D17" si="0">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A3,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C3,"' AND MODULE='",B3,"'),now(),now());")</f>
         <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='userInfo' AND MODULE='admin-router'),now(),now());</v>
       </c>
     </row>
@@ -2725,6 +2838,36 @@
       <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='/user/**' AND MODULE='admin-oauth2'),now(),now());</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='editor' AND MODULE='admin-router'),now(),now());</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='editBlog' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
   </sheetData>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="201">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -813,7 +813,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s</t>
+    <t>/edit/**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客编辑服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/class/**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客分类服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2115,11 +2127,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2588,9 +2600,58 @@
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/feign/**','/feign/**','服务接口','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
       </c>
     </row>
-    <row r="19" spans="7:7">
-      <c r="G19" s="9" t="s">
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
         <v>197</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I16" s="9">
+        <v>2</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:L17" si="2">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A16,"','",B16,"','",C16,"','",D16,"','",E15,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F16,"' AND M.MODULE='",J16,"'),'",G16,"',",IF(H16="","null",H16),",'",I16,"','",J16,"','",K16,"',now(),now());")</f>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/edit/**','/edit/**','博客编辑服务','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I17" s="9">
+        <v>2</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/class/**','/class/**','博客分类服务','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
       </c>
     </row>
   </sheetData>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -745,10 +745,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/feign/**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>服务接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -826,6 +822,10 @@
   </si>
   <si>
     <t>博客分类服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/feign/oauth/**</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2131,7 +2131,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>99</v>
@@ -2314,16 +2314,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>196</v>
       </c>
       <c r="H6" s="9">
         <v>4</v>
@@ -2518,16 +2518,16 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="H13" s="9">
         <v>6</v>
@@ -2548,76 +2548,76 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>181</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I14" s="9">
         <v>2</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K14" s="9">
         <v>0</v>
       </c>
       <c r="L14" t="str">
         <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A14,"','",B14,"','",C14,"','",D14,"','",E15,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F14,"' AND M.MODULE='",J14,"'),'",G14,"',",IF(H14="","null",H14),",'",I14,"','",J14,"','",K14,"',now(),now());")</f>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/feign/**','/feign/**','服务接口','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/feign/oauth/**','/feign/oauth/**','服务接口','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>182</v>
       </c>
       <c r="I15" s="9">
         <v>2</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K15" s="9">
         <v>0</v>
       </c>
       <c r="L15" t="str">
         <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A15,"','",B15,"','",C15,"','",D15,"','",E14,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F15,"' AND M.MODULE='",J15,"'),'",G15,"',",IF(H15="","null",H15),",'",I15,"','",J15,"','",K15,"',now(),now());")</f>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/feign/**','/feign/**','服务接口','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/feign/oauth/**','/feign/oauth/**','服务接口','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>198</v>
-      </c>
       <c r="E16" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I16" s="9">
         <v>2</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K16" s="9">
         <v>0</v>
@@ -2629,22 +2629,22 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>200</v>
-      </c>
       <c r="E17" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I17" s="9">
         <v>2</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K17" s="9">
         <v>0</v>
@@ -2903,13 +2903,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s">
         <v>109</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -2918,13 +2918,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="203">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -826,6 +826,14 @@
   </si>
   <si>
     <t>/feign/oauth/**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户博客服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2127,11 +2135,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2652,6 +2660,33 @@
       <c r="L17" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/class/**','/class/**','博客分类服务','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="I18" s="9">
+        <v>2</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" ref="L18" si="3">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A18,"','",B18,"','",C18,"','",D18,"','",E17,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F18,"' AND M.MODULE='",J18,"'),'",G18,"',",IF(H18="","null",H18),",'",I18,"','",J18,"','",K18,"',now(),now());")</f>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/user/**','/user/**','用户博客服务','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
       </c>
     </row>
   </sheetData>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="204">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,10 +471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin/User.vue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -805,10 +801,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>el-icon-document</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/edit/**</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -834,6 +826,18 @@
   </si>
   <si>
     <t>用户博客服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-icon-edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1282,22 +1286,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>24</v>
@@ -1305,40 +1309,40 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>135</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
         <v>143</v>
       </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1350,19 +1354,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
         <v>143</v>
       </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1374,19 +1378,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
         <v>143</v>
       </c>
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1398,19 +1402,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1422,19 +1426,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1446,19 +1450,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" t="s">
         <v>146</v>
       </c>
-      <c r="B8" t="s">
-        <v>147</v>
-      </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1470,19 +1474,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" t="s">
         <v>146</v>
       </c>
-      <c r="B9" t="s">
-        <v>147</v>
-      </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1494,19 +1498,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" t="s">
         <v>148</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>149</v>
-      </c>
-      <c r="C10" t="s">
-        <v>150</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1518,19 +1522,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s">
         <v>148</v>
       </c>
-      <c r="B11" t="s">
-        <v>149</v>
-      </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1542,19 +1546,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" t="s">
         <v>148</v>
       </c>
-      <c r="B12" t="s">
-        <v>149</v>
-      </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1566,19 +1570,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1590,19 +1594,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1698,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>13</v>
@@ -1743,16 +1747,16 @@
         <v>28</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N3" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASSWORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"',null,'",F3,"','",G3,"','",H3,"','",I3,"','",J3,"','",K3,"','",L3,"','",M3,"',now(),now());")</f>
@@ -1770,16 +1774,16 @@
         <v>28</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N4" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASSWORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"',null,'",F4,"','",G4,"','",H4,"','",I4,"','",J4,"','",K4,"','",L4,"','",M4,"',now(),now());")</f>
@@ -2053,22 +2057,22 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>73</v>
@@ -2077,10 +2081,10 @@
         <v>73</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L3" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",",I3,",'",J3,"','",K3,"',now(),now());")</f>
@@ -2089,22 +2093,22 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>73</v>
@@ -2113,10 +2117,10 @@
         <v>73</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L4" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"',",H4,",",I4,",'",J4,"','",K4,"',now(),now());")</f>
@@ -2139,7 +2143,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2232,16 +2236,16 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
@@ -2257,7 +2261,7 @@
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L13" si="0">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F3,"' AND M.MODULE='",J3,"'),'",G3,"',",IF(H3="","null",H3),",'",I3,"','",J3,"','",K3,"',now(),now());")</f>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userInfo','/user','个人中心','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-s-custom',1,'1','admin-menu','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userInfo','/user','个人资料','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-s-custom',1,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2292,7 +2296,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>99</v>
@@ -2322,16 +2326,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H6" s="9">
         <v>4</v>
@@ -2347,7 +2351,7 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('editBlog','/editor','发布博客','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-document',4,'1','admin-menu','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('editBlog','/editor','发布博客','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-edit',4,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2361,13 +2365,13 @@
         <v>105</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I7" s="9">
         <v>2</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
@@ -2388,13 +2392,13 @@
         <v>108</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I8" s="9">
         <v>2</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K8" s="9">
         <v>0</v>
@@ -2406,16 +2410,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="H9" s="9">
         <v>2</v>
@@ -2431,21 +2435,21 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userInfo','/user','个人中心','admin/User.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',2,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userInfo','/user','个人资料','admin/User.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',2,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" t="s">
         <v>115</v>
-      </c>
-      <c r="D10" t="s">
-        <v>116</v>
       </c>
       <c r="H10" s="9">
         <v>3</v>
@@ -2466,16 +2470,16 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="H11" s="9">
         <v>4</v>
@@ -2496,16 +2500,16 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="H12" s="9">
         <v>5</v>
@@ -2526,16 +2530,16 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>187</v>
       </c>
       <c r="H13" s="9">
         <v>6</v>
@@ -2556,22 +2560,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I14" s="9">
         <v>2</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K14" s="9">
         <v>0</v>
@@ -2583,22 +2587,22 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="I15" s="9">
         <v>2</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K15" s="9">
         <v>0</v>
@@ -2610,22 +2614,22 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I16" s="9">
         <v>2</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K16" s="9">
         <v>0</v>
@@ -2637,22 +2641,22 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I17" s="9">
         <v>2</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K17" s="9">
         <v>0</v>
@@ -2664,22 +2668,22 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I18" s="9">
         <v>2</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K18" s="9">
         <v>0</v>
@@ -2749,7 +2753,7 @@
         <v>109</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D17" si="0">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A3,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C3,"' AND MODULE='",B3,"'),now(),now());")</f>
@@ -2764,7 +2768,7 @@
         <v>109</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -2779,7 +2783,7 @@
         <v>109</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -2794,7 +2798,7 @@
         <v>109</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -2809,7 +2813,7 @@
         <v>109</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -2824,7 +2828,7 @@
         <v>109</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -2839,7 +2843,7 @@
         <v>95</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ref="D9" si="1">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A9,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C9,"' AND MODULE='",B9,"'),now(),now());")</f>
@@ -2884,7 +2888,7 @@
         <v>95</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -2938,13 +2942,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
         <v>109</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -2953,13 +2957,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -471,10 +471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>admin/User.vue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>users</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -838,6 +834,10 @@
   </si>
   <si>
     <t>个人资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/info/User.vue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1286,22 +1286,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>24</v>
@@ -1309,40 +1309,40 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
         <v>142</v>
       </c>
-      <c r="B3" t="s">
-        <v>143</v>
-      </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1354,19 +1354,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
         <v>142</v>
       </c>
-      <c r="B4" t="s">
-        <v>143</v>
-      </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1378,19 +1378,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
         <v>142</v>
       </c>
-      <c r="B5" t="s">
-        <v>143</v>
-      </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1402,19 +1402,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1426,19 +1426,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1450,19 +1450,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
         <v>145</v>
       </c>
-      <c r="B8" t="s">
-        <v>146</v>
-      </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1474,19 +1474,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" t="s">
         <v>145</v>
       </c>
-      <c r="B9" t="s">
-        <v>146</v>
-      </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1498,19 +1498,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" t="s">
         <v>147</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>148</v>
-      </c>
-      <c r="C10" t="s">
-        <v>149</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1522,19 +1522,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s">
         <v>147</v>
       </c>
-      <c r="B11" t="s">
-        <v>148</v>
-      </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1546,19 +1546,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s">
         <v>147</v>
       </c>
-      <c r="B12" t="s">
-        <v>148</v>
-      </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1570,19 +1570,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1594,19 +1594,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1702,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>13</v>
@@ -1747,16 +1747,16 @@
         <v>28</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N3" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASSWORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"',null,'",F3,"','",G3,"','",H3,"','",I3,"','",J3,"','",K3,"','",L3,"','",M3,"',now(),now());")</f>
@@ -1774,16 +1774,16 @@
         <v>28</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N4" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASSWORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"',null,'",F4,"','",G4,"','",H4,"','",I4,"','",J4,"','",K4,"','",L4,"','",M4,"',now(),now());")</f>
@@ -2057,22 +2057,22 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>73</v>
@@ -2081,10 +2081,10 @@
         <v>73</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L3" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",",I3,",'",J3,"','",K3,"',now(),now());")</f>
@@ -2093,22 +2093,22 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>73</v>
@@ -2117,10 +2117,10 @@
         <v>73</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L4" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"',",H4,",",I4,",'",J4,"','",K4,"',now(),now());")</f>
@@ -2143,7 +2143,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2236,16 +2236,16 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>99</v>
@@ -2326,16 +2326,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H6" s="9">
         <v>4</v>
@@ -2365,13 +2365,13 @@
         <v>105</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I7" s="9">
         <v>2</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
@@ -2392,13 +2392,13 @@
         <v>108</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I8" s="9">
         <v>2</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K8" s="9">
         <v>0</v>
@@ -2410,16 +2410,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="H9" s="9">
         <v>2</v>
@@ -2435,21 +2435,21 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userInfo','/user','个人资料','admin/User.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',2,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userInfo','/user','个人资料','admin/info/User.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',2,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" t="s">
         <v>114</v>
-      </c>
-      <c r="D10" t="s">
-        <v>115</v>
       </c>
       <c r="H10" s="9">
         <v>3</v>
@@ -2470,16 +2470,16 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="H11" s="9">
         <v>4</v>
@@ -2500,16 +2500,16 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="H12" s="9">
         <v>5</v>
@@ -2530,16 +2530,16 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>186</v>
       </c>
       <c r="H13" s="9">
         <v>6</v>
@@ -2560,22 +2560,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I14" s="9">
         <v>2</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K14" s="9">
         <v>0</v>
@@ -2587,22 +2587,22 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="I15" s="9">
         <v>2</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K15" s="9">
         <v>0</v>
@@ -2614,22 +2614,22 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="E16" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I16" s="9">
         <v>2</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K16" s="9">
         <v>0</v>
@@ -2641,22 +2641,22 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>197</v>
-      </c>
       <c r="E17" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I17" s="9">
         <v>2</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K17" s="9">
         <v>0</v>
@@ -2668,22 +2668,22 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>200</v>
-      </c>
       <c r="E18" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I18" s="9">
         <v>2</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K18" s="9">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>109</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D17" si="0">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A3,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C3,"' AND MODULE='",B3,"'),now(),now());")</f>
@@ -2768,7 +2768,7 @@
         <v>109</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -2783,7 +2783,7 @@
         <v>109</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -2798,7 +2798,7 @@
         <v>109</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -2813,7 +2813,7 @@
         <v>109</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -2828,7 +2828,7 @@
         <v>109</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -2843,7 +2843,7 @@
         <v>95</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ref="D9" si="1">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A9,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C9,"' AND MODULE='",B9,"'),now(),now());")</f>
@@ -2888,7 +2888,7 @@
         <v>95</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -2942,13 +2942,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
         <v>109</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -2957,13 +2957,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="202">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -802,14 +802,6 @@
   </si>
   <si>
     <t>博客编辑服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/class/**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博客分类服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2139,11 +2131,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2242,7 +2234,7 @@
         <v>110</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>167</v>
@@ -2335,7 +2327,7 @@
         <v>184</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H6" s="9">
         <v>4</v>
@@ -2416,10 +2408,10 @@
         <v>110</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H9" s="9">
         <v>2</v>
@@ -2560,10 +2552,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>178</v>
@@ -2587,10 +2579,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>178</v>
@@ -2635,19 +2627,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L17" si="2">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A16,"','",B16,"','",C16,"','",D16,"','",E15,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F16,"' AND M.MODULE='",J16,"'),'",G16,"',",IF(H16="","null",H16),",'",I16,"','",J16,"','",K16,"',now(),now());")</f>
+        <f t="shared" ref="L16" si="2">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A16,"','",B16,"','",C16,"','",D16,"','",E15,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F16,"' AND M.MODULE='",J16,"'),'",G16,"',",IF(H16="","null",H16),",'",I16,"','",J16,"','",K16,"',now(),now());")</f>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/edit/**','/edit/**','博客编辑服务','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>179</v>
@@ -2661,36 +2653,9 @@
       <c r="K17" s="9">
         <v>0</v>
       </c>
-      <c r="L17" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/class/**','/class/**','博客分类服务','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="I18" s="9">
-        <v>2</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" ref="L18" si="3">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A18,"','",B18,"','",C18,"','",D18,"','",E17,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F18,"' AND M.MODULE='",J18,"'),'",G18,"',",IF(H18="","null",H18),",'",I18,"','",J18,"','",K18,"',now(),now());")</f>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/user/**','/user/**','用户博客服务','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
+      <c r="L17" t="e">
+        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A17,"','",B17,"','",C17,"','",D17,"','",#REF!,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F17,"' AND M.MODULE='",J17,"'),'",G17,"',",IF(H17="","null",H17),",'",I17,"','",J17,"','",K17,"',now(),now());")</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CODE_DATA" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="203">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -830,6 +830,10 @@
   </si>
   <si>
     <t>admin/info/User.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1882,11 +1886,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C4"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1937,6 +1941,18 @@
       <c r="C4" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER_ROLE (SU_ID, ROLE_ID,UPDATE_TIME,CREATE_TIME) VALUES (","(select c.SU_ID from SYS_USER c where c.USER_ID='",A4,"'), "," (select c.ROLE_ID from sys_role c where c.ROLE_CODE='",B4,"'),now(),now());")</f>
         <v>INSERT INTO SYS_USER_ROLE (SU_ID, ROLE_ID,UPDATE_TIME,CREATE_TIME) VALUES ((select c.SU_ID from SYS_USER c where c.USER_ID='www'),  (select c.ROLE_ID from sys_role c where c.ROLE_CODE='user'),now(),now());</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" t="str">
+        <f>CONCATENATE("INSERT INTO SYS_USER_ROLE (SU_ID, ROLE_ID,UPDATE_TIME,CREATE_TIME) VALUES (","(select c.SU_ID from SYS_USER c where c.USER_ID='",A5,"'), "," (select c.ROLE_ID from sys_role c where c.ROLE_CODE='",B5,"'),now(),now());")</f>
+        <v>INSERT INTO SYS_USER_ROLE (SU_ID, ROLE_ID,UPDATE_TIME,CREATE_TIME) VALUES ((select c.SU_ID from SYS_USER c where c.USER_ID='admin'),  (select c.ROLE_ID from sys_role c where c.ROLE_CODE='user'),now(),now());</v>
       </c>
     </row>
   </sheetData>
@@ -2133,9 +2149,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CODE_DATA" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="205">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,10 +459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>菜单请求路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin-router</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -834,6 +830,18 @@
   </si>
   <si>
     <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员请求路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1282,22 +1290,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>24</v>
@@ -1305,40 +1313,40 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>133</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
         <v>141</v>
       </c>
-      <c r="B3" t="s">
-        <v>142</v>
-      </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1350,19 +1358,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
         <v>141</v>
       </c>
-      <c r="B4" t="s">
-        <v>142</v>
-      </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1374,19 +1382,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" t="s">
         <v>141</v>
       </c>
-      <c r="B5" t="s">
-        <v>142</v>
-      </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1398,19 +1406,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1422,19 +1430,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1446,19 +1454,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
         <v>144</v>
       </c>
-      <c r="B8" t="s">
-        <v>145</v>
-      </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1470,19 +1478,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
         <v>144</v>
       </c>
-      <c r="B9" t="s">
-        <v>145</v>
-      </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1494,19 +1502,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" t="s">
         <v>146</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>147</v>
-      </c>
-      <c r="C10" t="s">
-        <v>148</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1518,19 +1526,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" t="s">
         <v>146</v>
       </c>
-      <c r="B11" t="s">
-        <v>147</v>
-      </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1542,19 +1550,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" t="s">
         <v>146</v>
       </c>
-      <c r="B12" t="s">
-        <v>147</v>
-      </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1566,19 +1574,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1590,19 +1598,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1698,7 +1706,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>13</v>
@@ -1743,16 +1751,16 @@
         <v>28</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N3" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASSWORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"',null,'",F3,"','",G3,"','",H3,"','",I3,"','",J3,"','",K3,"','",L3,"','",M3,"',now(),now());")</f>
@@ -1770,16 +1778,16 @@
         <v>28</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N4" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASSWORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"',null,'",F4,"','",G4,"','",H4,"','",I4,"','",J4,"','",K4,"','",L4,"','",M4,"',now(),now());")</f>
@@ -1888,9 +1896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1948,7 +1956,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER_ROLE (SU_ID, ROLE_ID,UPDATE_TIME,CREATE_TIME) VALUES (","(select c.SU_ID from SYS_USER c where c.USER_ID='",A5,"'), "," (select c.ROLE_ID from sys_role c where c.ROLE_CODE='",B5,"'),now(),now());")</f>
@@ -2065,22 +2073,22 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>73</v>
@@ -2089,10 +2097,10 @@
         <v>73</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L3" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",",I3,",'",J3,"','",K3,"',now(),now());")</f>
@@ -2101,22 +2109,22 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>73</v>
@@ -2125,10 +2133,10 @@
         <v>73</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L4" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"',",H4,",",I4,",'",J4,"','",K4,"',now(),now());")</f>
@@ -2149,9 +2157,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2244,16 +2252,16 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
@@ -2268,22 +2276,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L13" si="0">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F3,"' AND M.MODULE='",J3,"'),'",G3,"',",IF(H3="","null",H3),",'",I3,"','",J3,"','",K3,"',now(),now());")</f>
+        <f t="shared" ref="L3:L11" si="0">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F3,"' AND M.MODULE='",J3,"'),'",G3,"',",IF(H3="","null",H3),",'",I3,"','",J3,"','",K3,"',now(),now());")</f>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userInfo','/user','个人资料','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-s-custom',1,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="H4" s="9">
         <v>2</v>
@@ -2298,22 +2306,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L4" si="1">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F4,"' AND M.MODULE='",J4,"'),'",G4,"',",IF(H4="","null",H4),",'",I4,"','",J4,"','",K4,"',now(),now());")</f>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userList','/users','用户列表','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-user',2,'1','admin-menu','0',now(),now());</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('editBlog','/editor','发布博客','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-edit',2,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H5" s="9">
         <v>3</v>
@@ -2328,22 +2336,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menuManage','/menu','菜单管理','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-menu',3,'1','admin-menu','0',now(),now());</v>
+        <f t="shared" ref="L5" si="1">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A5,"','",B5,"','",C5,"','",D5,"','",E5,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F5,"' AND M.MODULE='",J5,"'),'",G5,"',",IF(H5="","null",H5),",'",I5,"','",J5,"','",K5,"',now(),now());")</f>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userList','/users','用户列表','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-user',3,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="H6" s="9">
         <v>4</v>
@@ -2359,231 +2367,231 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('editBlog','/editor','发布博客','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-edit',4,'1','admin-menu','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menuManage','/menu','菜单管理','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-menu',4,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>174</v>
+        <v>199</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7" s="9">
+        <v>2</v>
       </c>
       <c r="I7" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/user/**','/user/**','用户信息请求路径','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userInfo','/user','个人资料','admin/info/User.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',2,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="9">
+        <v>3</v>
+      </c>
+      <c r="I8" s="9">
+        <v>3</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="I8" s="9">
-        <v>2</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="K8" s="9">
         <v>0</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/menu/**','/menu/**','菜单请求路径','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('users','/users','用户列表','admin/UserList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',3,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="H9" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9" s="9">
         <v>3</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K9" s="9">
         <v>0</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userInfo','/user','个人资料','admin/info/User.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',2,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('news','/news','消息中心','admin/News.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',4,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" t="s">
-        <v>114</v>
+        <v>120</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="H10" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10" s="9">
         <v>3</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K10" s="9">
         <v>0</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('users','/users','用户列表','admin/UserList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',3,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu','/menu','菜单管理','admin/MenuList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',5,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="H11" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11" s="9">
         <v>3</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K11" s="9">
         <v>0</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('news','/news','消息中心','admin/News.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',4,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('editor','/editor','发布博客','blog/EditBlog.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',6,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" s="9">
-        <v>5</v>
+        <v>105</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="I12" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu','/menu','菜单管理','admin/MenuList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',5,'3','admin-router','0',now(),now());</v>
+        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A12,"','",B12,"','",C12,"','",D12,"','",E12,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F12,"' AND M.MODULE='",J12,"'),'",G12,"',",IF(H12="","null",H12),",'",I12,"','",J12,"','",K12,"',now(),now());")</f>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/user/**','/user/**','用户信息请求路径','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="H13" s="9">
-        <v>6</v>
+        <v>204</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="I13" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K13" s="9">
         <v>0</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('editor','/editor','发布博客','blog/EditBlog.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',6,'3','admin-router','0',now(),now());</v>
+        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A13,"','",B13,"','",C13,"','",D13,"','",E13,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F13,"' AND M.MODULE='",J13,"'),'",G13,"',",IF(H13="","null",H13),",'",I13,"','",J13,"','",K13,"',now(),now());")</f>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/admin/**','/admin/**','管理员请求路径','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I14" s="9">
         <v>2</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K14" s="9">
         <v>0</v>
@@ -2595,22 +2603,22 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>179</v>
       </c>
       <c r="I15" s="9">
         <v>2</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K15" s="9">
         <v>0</v>
@@ -2622,56 +2630,56 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>194</v>
-      </c>
       <c r="E16" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I16" s="9">
         <v>2</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K16" s="9">
         <v>0</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" ref="L16" si="2">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A16,"','",B16,"','",C16,"','",D16,"','",E15,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F16,"' AND M.MODULE='",J16,"'),'",G16,"',",IF(H16="","null",H16),",'",I16,"','",J16,"','",K16,"',now(),now());")</f>
+        <f t="shared" ref="L16:L17" si="2">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A16,"','",B16,"','",C16,"','",D16,"','",E15,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F16,"' AND M.MODULE='",J16,"'),'",G16,"',",IF(H16="","null",H16),",'",I16,"','",J16,"','",K16,"',now(),now());")</f>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/edit/**','/edit/**','博客编辑服务','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>197</v>
-      </c>
       <c r="E17" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I17" s="9">
         <v>2</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K17" s="9">
         <v>0</v>
       </c>
-      <c r="L17" t="e">
-        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A17,"','",B17,"','",C17,"','",D17,"','",#REF!,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F17,"' AND M.MODULE='",J17,"'),'",G17,"',",IF(H17="","null",H17),",'",I17,"','",J17,"','",K17,"',now(),now());")</f>
-        <v>#REF!</v>
+      <c r="L17" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/user/**','/user/**','用户博客服务','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
       </c>
     </row>
   </sheetData>
@@ -2690,7 +2698,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2731,10 +2739,10 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D17" si="0">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A3,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C3,"' AND MODULE='",B3,"'),now(),now());")</f>
@@ -2746,10 +2754,10 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -2761,10 +2769,10 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -2776,10 +2784,10 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -2791,10 +2799,10 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -2806,10 +2814,10 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -2824,7 +2832,7 @@
         <v>95</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ref="D9" si="1">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A9,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C9,"' AND MODULE='",B9,"'),now(),now());")</f>
@@ -2869,7 +2877,7 @@
         <v>95</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -2923,13 +2931,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -2938,13 +2946,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CODE_DATA" sheetId="7" r:id="rId1"/>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -842,6 +838,10 @@
   </si>
   <si>
     <t>管理员请求路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1290,22 +1290,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>24</v>
@@ -1313,40 +1313,40 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>132</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
         <v>140</v>
       </c>
-      <c r="B3" t="s">
-        <v>141</v>
-      </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1358,19 +1358,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
         <v>140</v>
       </c>
-      <c r="B4" t="s">
-        <v>141</v>
-      </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1382,19 +1382,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
         <v>140</v>
       </c>
-      <c r="B5" t="s">
-        <v>141</v>
-      </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1406,19 +1406,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1430,19 +1430,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1454,19 +1454,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" t="s">
         <v>143</v>
       </c>
-      <c r="B8" t="s">
-        <v>144</v>
-      </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1478,19 +1478,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" t="s">
         <v>143</v>
       </c>
-      <c r="B9" t="s">
-        <v>144</v>
-      </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1502,19 +1502,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" t="s">
         <v>145</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>146</v>
-      </c>
-      <c r="C10" t="s">
-        <v>147</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1526,19 +1526,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" t="s">
         <v>145</v>
       </c>
-      <c r="B11" t="s">
-        <v>146</v>
-      </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1550,19 +1550,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" t="s">
         <v>145</v>
       </c>
-      <c r="B12" t="s">
-        <v>146</v>
-      </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1574,19 +1574,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1598,19 +1598,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1706,7 +1706,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>13</v>
@@ -1751,16 +1751,16 @@
         <v>28</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N3" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASSWORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"',null,'",F3,"','",G3,"','",H3,"','",I3,"','",J3,"','",K3,"','",L3,"','",M3,"',now(),now());")</f>
@@ -1778,16 +1778,16 @@
         <v>28</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N4" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASSWORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"',null,'",F4,"','",G4,"','",H4,"','",I4,"','",J4,"','",K4,"','",L4,"','",M4,"',now(),now());")</f>
@@ -1815,9 +1815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C3:C5"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1863,19 +1863,19 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="C4" t="str">
         <f>CONCATENATE("INSERT INTO SYS_ROLE (ROLE_CODE,ROLE_NAME,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"',now(),now());")</f>
-        <v>INSERT INTO SYS_ROLE (ROLE_CODE,ROLE_NAME,UPDATE_TIME,CREATE_TIME) VALUES('user','用户',now(),now());</v>
+        <v>INSERT INTO SYS_ROLE (ROLE_CODE,ROLE_NAME,UPDATE_TIME,CREATE_TIME) VALUES('user','普通用户',now(),now());</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
         <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
       </c>
       <c r="C5" t="str">
         <f>CONCATENATE("INSERT INTO SYS_ROLE (ROLE_CODE,ROLE_NAME,UPDATE_TIME,CREATE_TIME) VALUES('",A5,"','",B5,"',now(),now());")</f>
@@ -1909,10 +1909,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>24</v>
@@ -1920,10 +1920,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="12"/>
     </row>
@@ -1932,7 +1932,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER_ROLE (SU_ID, ROLE_ID,UPDATE_TIME,CREATE_TIME) VALUES (","(select c.SU_ID from SYS_USER c where c.USER_ID='",A3,"'), "," (select c.ROLE_ID from sys_role c where c.ROLE_CODE='",B3,"'),now(),now());")</f>
@@ -1941,10 +1941,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
         <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
       </c>
       <c r="C4" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER_ROLE (SU_ID, ROLE_ID,UPDATE_TIME,CREATE_TIME) VALUES (","(select c.SU_ID from SYS_USER c where c.USER_ID='",A4,"'), "," (select c.ROLE_ID from sys_role c where c.ROLE_CODE='",B4,"'),now(),now());")</f>
@@ -1956,7 +1956,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER_ROLE (SU_ID, ROLE_ID,UPDATE_TIME,CREATE_TIME) VALUES (","(select c.SU_ID from SYS_USER c where c.USER_ID='",A5,"'), "," (select c.ROLE_ID from sys_role c where c.ROLE_CODE='",B5,"'),now(),now());")</f>
@@ -1999,37 +1999,37 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40.5">
       <c r="A1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>24</v>
@@ -2037,70 +2037,70 @@
     </row>
     <row r="2" spans="1:12" ht="40.5">
       <c r="A2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L3" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",",I3,",'",J3,"','",K3,"',now(),now());")</f>
@@ -2109,34 +2109,34 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L4" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"',",H4,",",I4,",'",J4,"','",K4,"',now(),now());")</f>
@@ -2157,9 +2157,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2178,37 +2178,37 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>24</v>
@@ -2216,52 +2216,52 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K3" s="9">
         <v>0</v>
@@ -2282,16 +2282,16 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H4" s="9">
         <v>2</v>
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K4" s="9">
         <v>0</v>
@@ -2312,16 +2312,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="H5" s="9">
         <v>3</v>
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K5" s="9">
         <v>0</v>
@@ -2342,16 +2342,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="G6" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H6" s="9">
         <v>4</v>
@@ -2360,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K6" s="9">
         <v>0</v>
@@ -2372,16 +2372,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="H7" s="9">
         <v>2</v>
@@ -2390,7 +2390,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
@@ -2402,16 +2402,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" t="s">
         <v>112</v>
-      </c>
-      <c r="D8" t="s">
-        <v>113</v>
       </c>
       <c r="H8" s="9">
         <v>3</v>
@@ -2420,7 +2420,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K8" s="9">
         <v>0</v>
@@ -2432,16 +2432,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="H9" s="9">
         <v>4</v>
@@ -2450,7 +2450,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K9" s="9">
         <v>0</v>
@@ -2462,16 +2462,16 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="H10" s="9">
         <v>5</v>
@@ -2480,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K10" s="9">
         <v>0</v>
@@ -2492,16 +2492,16 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="H11" s="9">
         <v>6</v>
@@ -2510,7 +2510,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K11" s="9">
         <v>0</v>
@@ -2522,22 +2522,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="E12" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I12" s="9">
         <v>2</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
@@ -2549,22 +2549,22 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>204</v>
-      </c>
       <c r="E13" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I13" s="9">
         <v>2</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K13" s="9">
         <v>0</v>
@@ -2576,22 +2576,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I14" s="9">
         <v>2</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K14" s="9">
         <v>0</v>
@@ -2603,22 +2603,22 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>178</v>
       </c>
       <c r="I15" s="9">
         <v>2</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K15" s="9">
         <v>0</v>
@@ -2630,22 +2630,22 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>193</v>
-      </c>
       <c r="E16" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I16" s="9">
         <v>2</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K16" s="9">
         <v>0</v>
@@ -2657,22 +2657,22 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>196</v>
-      </c>
       <c r="E17" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I17" s="9">
         <v>2</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K17" s="9">
         <v>0</v>
@@ -2710,13 +2710,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>24</v>
@@ -2724,13 +2724,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="12"/>
     </row>
@@ -2739,10 +2739,10 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D17" si="0">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A3,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C3,"' AND MODULE='",B3,"'),now(),now());")</f>
@@ -2754,10 +2754,10 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -2769,10 +2769,10 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -2784,10 +2784,10 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -2799,10 +2799,10 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -2814,10 +2814,10 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -2829,10 +2829,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ref="D9" si="1">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A9,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C9,"' AND MODULE='",B9,"'),now(),now());")</f>
@@ -2844,10 +2844,10 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -2859,10 +2859,10 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -2874,10 +2874,10 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -2889,10 +2889,10 @@
         <v>26</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -2904,10 +2904,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -2919,10 +2919,10 @@
         <v>37</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -2931,13 +2931,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -2946,13 +2946,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CODE_DATA" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="206">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,10 +471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin/UserList.vue</t>
   </si>
   <si>
@@ -486,10 +482,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消息中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin/News.vue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,10 +494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>菜单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin/MenuList.vue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -817,10 +805,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin/info/User.vue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -842,6 +826,26 @@
   </si>
   <si>
     <t>普通用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wWw博客-个人资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wWw博客-用户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wWw博客-消息中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wWw博客-菜单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wWw博客-发布博客</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1290,22 +1294,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>24</v>
@@ -1313,40 +1317,40 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>133</v>
-      </c>
       <c r="E2" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1358,19 +1362,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1382,19 +1386,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1406,19 +1410,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1430,19 +1434,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1454,19 +1458,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1478,19 +1482,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1502,19 +1506,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1526,19 +1530,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" t="s">
         <v>144</v>
-      </c>
-      <c r="B11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" t="s">
-        <v>147</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1550,19 +1554,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" t="s">
         <v>145</v>
-      </c>
-      <c r="C12" t="s">
-        <v>148</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1574,19 +1578,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1598,19 +1602,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1706,7 +1710,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>13</v>
@@ -1751,16 +1755,16 @@
         <v>28</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N3" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASSWORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"',null,'",F3,"','",G3,"','",H3,"','",I3,"','",J3,"','",K3,"','",L3,"','",M3,"',now(),now());")</f>
@@ -1778,16 +1782,16 @@
         <v>28</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N4" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASSWORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"',null,'",F4,"','",G4,"','",H4,"','",I4,"','",J4,"','",K4,"','",L4,"','",M4,"',now(),now());")</f>
@@ -1815,7 +1819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
@@ -1863,7 +1867,7 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C4" t="str">
         <f>CONCATENATE("INSERT INTO SYS_ROLE (ROLE_CODE,ROLE_NAME,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"',now(),now());")</f>
@@ -1956,7 +1960,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C5" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER_ROLE (SU_ID, ROLE_ID,UPDATE_TIME,CREATE_TIME) VALUES (","(select c.SU_ID from SYS_USER c where c.USER_ID='",A5,"'), "," (select c.ROLE_ID from sys_role c where c.ROLE_CODE='",B5,"'),now(),now());")</f>
@@ -2073,22 +2077,22 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>72</v>
@@ -2097,10 +2101,10 @@
         <v>72</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="L3" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",",I3,",'",J3,"','",K3,"',now(),now());")</f>
@@ -2109,22 +2113,22 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>72</v>
@@ -2133,10 +2137,10 @@
         <v>72</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="L4" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"',",H4,",",I4,",'",J4,"','",K4,"',now(),now());")</f>
@@ -2157,9 +2161,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G23:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2252,16 +2256,16 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
@@ -2282,16 +2286,16 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H4" s="9">
         <v>2</v>
@@ -2342,7 +2346,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>98</v>
@@ -2372,16 +2376,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H7" s="9">
         <v>2</v>
@@ -2397,7 +2401,7 @@
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userInfo','/user','个人资料','admin/info/User.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',2,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userInfo','/user','wWw博客-个人资料','admin/info/User.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',2,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2408,10 +2412,10 @@
         <v>110</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" t="s">
         <v>111</v>
-      </c>
-      <c r="D8" t="s">
-        <v>112</v>
       </c>
       <c r="H8" s="9">
         <v>3</v>
@@ -2427,21 +2431,21 @@
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('users','/users','用户列表','admin/UserList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',3,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('users','/users','wWw博客-用户列表','admin/UserList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',3,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="H9" s="9">
         <v>4</v>
@@ -2457,21 +2461,21 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('news','/news','消息中心','admin/News.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',4,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('news','/news','wWw博客-消息中心','admin/News.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',4,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="H10" s="9">
         <v>5</v>
@@ -2487,21 +2491,21 @@
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu','/menu','菜单管理','admin/MenuList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',5,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu','/menu','wWw博客-菜单管理','admin/MenuList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',5,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H11" s="9">
         <v>6</v>
@@ -2517,7 +2521,7 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('editor','/editor','发布博客','blog/EditBlog.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',6,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('editor','/editor','wWw博客-发布博客','blog/EditBlog.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',6,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2531,13 +2535,13 @@
         <v>104</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I12" s="9">
         <v>2</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
@@ -2549,22 +2553,22 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I13" s="9">
         <v>2</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K13" s="9">
         <v>0</v>
@@ -2576,22 +2580,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>179</v>
       </c>
       <c r="I14" s="9">
         <v>2</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K14" s="9">
         <v>0</v>
@@ -2603,22 +2607,22 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I15" s="9">
         <v>2</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K15" s="9">
         <v>0</v>
@@ -2630,22 +2634,22 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I16" s="9">
         <v>2</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K16" s="9">
         <v>0</v>
@@ -2657,22 +2661,22 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I17" s="9">
         <v>2</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K17" s="9">
         <v>0</v>
@@ -2742,7 +2746,7 @@
         <v>107</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D17" si="0">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A3,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C3,"' AND MODULE='",B3,"'),now(),now());")</f>
@@ -2772,7 +2776,7 @@
         <v>107</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -2787,7 +2791,7 @@
         <v>107</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -2802,7 +2806,7 @@
         <v>107</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -2817,7 +2821,7 @@
         <v>107</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -2832,7 +2836,7 @@
         <v>94</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ref="D9" si="1">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A9,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C9,"' AND MODULE='",B9,"'),now(),now());")</f>
@@ -2877,7 +2881,7 @@
         <v>94</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -2931,13 +2935,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
         <v>107</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -2946,13 +2950,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s">
         <v>94</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CODE_DATA" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="231">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,9 +175,6 @@
   <si>
     <t>管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
   </si>
   <si>
     <t>user</t>
@@ -407,14 +404,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuManage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/users</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,14 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>admin-oauth2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/menu/**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin-router</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,10 +444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/users</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -474,10 +451,6 @@
     <t>admin/UserList.vue</t>
   </si>
   <si>
-    <t>news</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/news</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,10 +459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/menu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -669,18 +638,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>el-icon-s-custom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>my-blog,my-base</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -693,10 +654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>blog:read,blog:write,base:read,base:write</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -749,63 +706,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>editBlog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/editor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/edit/**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客编辑服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/feign/oauth/**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户博客服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-icon-edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/info/User.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>editor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>editor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menuManage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>editBlog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/edit/**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博客编辑服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/feign/oauth/**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户博客服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-icon-edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/info/User.vue</t>
+    <t>/admin/**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员请求路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wWw博客-个人资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wWw博客-用户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wWw博客-消息中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wWw博客-菜单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wWw博客-发布博客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wWw博客-博客管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blog/ManageBlog.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wWw博客-我的关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wWw博客-我的粉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wWw博客-我的收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/follow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/fans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blog/Follow.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blog/Fans.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/collect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blog/collect.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的粉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>router_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oauth_base_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oauth_base_admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oauth_base_oauth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oauth_blog_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oauth_blog_edit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -813,39 +870,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/admin/**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin/**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员请求路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wWw博客-个人资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wWw博客-用户列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wWw博客-消息中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wWw博客-菜单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wWw博客-发布博客</t>
+    <t>menu_editor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_follow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_fans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_collect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>router_users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>router_news</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>router_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>router_editor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>router_follow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>router_fans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>router_collect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oauth_blog_oauth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-icon-lx-likefill</t>
+  </si>
+  <si>
+    <t>el-icon-lx-friend</t>
+  </si>
+  <si>
+    <t>el-icon-lx-favorfill</t>
+  </si>
+  <si>
+    <t>/blog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_blog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>router_blog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1294,22 +1392,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>24</v>
@@ -1317,40 +1415,40 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1362,19 +1460,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s">
         <v>136</v>
-      </c>
-      <c r="B4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" t="s">
-        <v>144</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1386,19 +1484,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
         <v>137</v>
-      </c>
-      <c r="C5" t="s">
-        <v>145</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1410,19 +1508,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1434,19 +1532,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1458,19 +1556,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1482,19 +1580,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1506,19 +1604,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1530,19 +1628,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1554,19 +1652,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1578,19 +1676,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1602,19 +1700,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1710,7 +1808,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>13</v>
@@ -1755,16 +1853,16 @@
         <v>28</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="N3" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASSWORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"',null,'",F3,"','",G3,"','",H3,"','",I3,"','",J3,"','",K3,"','",L3,"','",M3,"',now(),now());")</f>
@@ -1782,16 +1880,16 @@
         <v>28</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="N4" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER (USER_ID,USER_NAME,PASSWORD,PHONE_NUM,BIRTHDAY,SEX,PHOTO,EMAIL,BRIEF,STATE_CD,NOT_EXPIRED,NOT_LOCKED,CREDENTIALS_NOT_EXPIRED,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"',null,'",F4,"','",G4,"','",H4,"','",I4,"','",J4,"','",K4,"','",L4,"','",M4,"',now(),now());")</f>
@@ -1864,10 +1962,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C4" t="str">
         <f>CONCATENATE("INSERT INTO SYS_ROLE (ROLE_CODE,ROLE_NAME,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"',now(),now());")</f>
@@ -1876,10 +1974,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
       </c>
       <c r="C5" t="str">
         <f>CONCATENATE("INSERT INTO SYS_ROLE (ROLE_CODE,ROLE_NAME,UPDATE_TIME,CREATE_TIME) VALUES('",A5,"','",B5,"',now(),now());")</f>
@@ -1913,10 +2011,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>24</v>
@@ -1924,10 +2022,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="12"/>
     </row>
@@ -1936,7 +2034,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER_ROLE (SU_ID, ROLE_ID,UPDATE_TIME,CREATE_TIME) VALUES (","(select c.SU_ID from SYS_USER c where c.USER_ID='",A3,"'), "," (select c.ROLE_ID from sys_role c where c.ROLE_CODE='",B3,"'),now(),now());")</f>
@@ -1945,10 +2043,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
       </c>
       <c r="C4" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER_ROLE (SU_ID, ROLE_ID,UPDATE_TIME,CREATE_TIME) VALUES (","(select c.SU_ID from SYS_USER c where c.USER_ID='",A4,"'), "," (select c.ROLE_ID from sys_role c where c.ROLE_CODE='",B4,"'),now(),now());")</f>
@@ -1960,7 +2058,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="C5" t="str">
         <f>CONCATENATE("INSERT INTO SYS_USER_ROLE (SU_ID, ROLE_ID,UPDATE_TIME,CREATE_TIME) VALUES (","(select c.SU_ID from SYS_USER c where c.USER_ID='",A5,"'), "," (select c.ROLE_ID from sys_role c where c.ROLE_CODE='",B5,"'),now(),now());")</f>
@@ -2003,37 +2101,37 @@
   <sheetData>
     <row r="1" spans="1:12" ht="40.5">
       <c r="A1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>24</v>
@@ -2041,70 +2139,70 @@
     </row>
     <row r="2" spans="1:12" ht="40.5">
       <c r="A2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L3" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",",I3,",'",J3,"','",K3,"',now(),now());")</f>
@@ -2113,34 +2211,34 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L4" t="str">
         <f>CONCATENATE("INSERT INTO OAUTH_CLIENT_DETAILS (CLIENT_ID,RESOURCE_IDS,CLIENT_SECRET,SCOPE,AUTHORIZED_GRANT_TYPES,WEB_SERVER_REDIRECT_URI,AUTHORITIES,ACCESS_TOKEN_VALIDITY,REFRESH_TOKEN_VALIDITY,ADDITIONAL_INFORMATION,AUTOAPPROVE,UPDATE_TIME,CREATE_TIME) VALUES('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"',",H4,",",I4,",'",J4,"','",K4,"',now(),now());")</f>
@@ -2159,18 +2257,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G23:G24"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="9" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="9" customWidth="1"/>
     <col min="5" max="5" width="6.75" style="9" customWidth="1"/>
     <col min="6" max="7" width="12.5" style="9" bestFit="1" customWidth="1"/>
@@ -2182,37 +2280,37 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>24</v>
@@ -2220,52 +2318,52 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
@@ -2274,28 +2372,28 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K3" s="9">
         <v>0</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L11" si="0">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F3,"' AND M.MODULE='",J3,"'),'",G3,"',",IF(H3="","null",H3),",'",I3,"','",J3,"','",K3,"',now(),now());")</f>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userInfo','/user','个人资料','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-s-custom',1,'1','admin-menu','0',now(),now());</v>
+        <f t="shared" ref="L3:L15" si="0">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F3,"' AND M.MODULE='",J3,"'),'",G3,"',",IF(H3="","null",H3),",'",I3,"','",J3,"','",K3,"',now(),now());")</f>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_user','/user','个人资料','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-s-custom',1,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="H4" s="9">
         <v>2</v>
@@ -2304,28 +2402,28 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K4" s="9">
         <v>0</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('editBlog','/editor','发布博客','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-edit',2,'1','admin-menu','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_editor','/editor','发布博客','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-edit',2,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="G5" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H5" s="9">
         <v>3</v>
@@ -2334,28 +2432,28 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K5" s="9">
         <v>0</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" ref="L5" si="1">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A5,"','",B5,"','",C5,"','",D5,"','",E5,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F5,"' AND M.MODULE='",J5,"'),'",G5,"',",IF(H5="","null",H5),",'",I5,"','",J5,"','",K5,"',now(),now());")</f>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userList','/users','用户列表','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-user',3,'1','admin-menu','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_users','/users','用户列表','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-user',3,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="H6" s="9">
         <v>4</v>
@@ -2364,326 +2462,566 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K6" s="9">
         <v>0</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menuManage','/menu','菜单管理','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-menu',4,'1','admin-menu','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_menu','/menu','菜单管理','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-menu',4,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="H7" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7" s="9">
-        <v>3</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>107</v>
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('userInfo','/user','wWw博客-个人资料','admin/info/User.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',2,'3','admin-router','0',now(),now());</v>
+        <f t="shared" ref="L7:L10" si="2">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A7,"','",B7,"','",C7,"','",D7,"','",E7,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F7,"' AND M.MODULE='",J7,"'),'",G7,"',",IF(H7="","null",H7),",'",I7,"','",J7,"','",K7,"',now(),now());")</f>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_blog','/blog','博客管理','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-menu',5,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" t="s">
-        <v>111</v>
+        <v>200</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="H8" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I8" s="9">
-        <v>3</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>107</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
       </c>
       <c r="K8" s="9">
         <v>0</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('users','/users','wWw博客-用户列表','admin/UserList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',3,'3','admin-router','0',now(),now());</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_follow','/follow','我的关注','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-lx-likefill',6,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>114</v>
+        <v>201</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="H9" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I9" s="9">
-        <v>3</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>107</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
       </c>
       <c r="K9" s="9">
         <v>0</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('news','/news','wWw博客-消息中心','admin/News.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',4,'3','admin-router','0',now(),now());</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_fans','/fans','我的粉丝','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-lx-friend',7,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>117</v>
+        <v>202</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="H10" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I10" s="9">
-        <v>3</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>107</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>93</v>
       </c>
       <c r="K10" s="9">
         <v>0</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu','/menu','wWw博客-菜单管理','admin/MenuList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',5,'3','admin-router','0',now(),now());</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_collect','/collect','我的收藏','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-lx-favorfill',8,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>180</v>
-      </c>
       <c r="H11" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I11" s="9">
         <v>3</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K11" s="9">
         <v>0</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('editor','/editor','wWw博客-发布博客','blog/EditBlog.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',6,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_user','/user','wWw博客-个人资料','admin/info/User.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',1,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>169</v>
+        <v>184</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2</v>
       </c>
       <c r="I12" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
       </c>
       <c r="L12" t="str">
-        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A12,"','",B12,"','",C12,"','",D12,"','",E12,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F12,"' AND M.MODULE='",J12,"'),'",G12,"',",IF(H12="","null",H12),",'",I12,"','",J12,"','",K12,"',now(),now());")</f>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/user/**','/user/**','用户信息请求路径','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_users','/users','wWw博客-用户列表','admin/UserList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',2,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>169</v>
+        <v>185</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="9">
+        <v>3</v>
       </c>
       <c r="I13" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="K13" s="9">
         <v>0</v>
       </c>
       <c r="L13" t="str">
-        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A13,"','",B13,"','",C13,"','",D13,"','",E13,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F13,"' AND M.MODULE='",J13,"'),'",G13,"',",IF(H13="","null",H13),",'",I13,"','",J13,"','",K13,"',now(),now());")</f>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/admin/**','/admin/**','管理员请求路径','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_news','/news','wWw博客-消息中心','admin/News.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',3,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B14" t="s">
-        <v>190</v>
+      <c r="A14" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>176</v>
+        <v>186</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="9">
+        <v>4</v>
       </c>
       <c r="I14" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="K14" s="9">
         <v>0</v>
       </c>
       <c r="L14" t="str">
-        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A14,"','",B14,"','",C14,"','",D14,"','",E15,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F14,"' AND M.MODULE='",J14,"'),'",G14,"',",IF(H14="","null",H14),",'",I14,"','",J14,"','",K14,"',now(),now());")</f>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/feign/oauth/**','/feign/oauth/**','服务接口','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_menu','/menu','wWw博客-菜单管理','admin/MenuList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',4,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B15" t="s">
-        <v>190</v>
+      <c r="A15" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>174</v>
+        <v>187</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" s="9">
+        <v>5</v>
       </c>
       <c r="I15" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="K15" s="9">
         <v>0</v>
       </c>
       <c r="L15" t="str">
-        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A15,"','",B15,"','",C15,"','",D15,"','",E14,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F15,"' AND M.MODULE='",J15,"'),'",G15,"',",IF(H15="","null",H15),",'",I15,"','",J15,"','",K15,"',now(),now());")</f>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/feign/oauth/**','/feign/oauth/**','服务接口','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_editor','/editor','wWw博客-发布博客','blog/EditBlog.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',5,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>174</v>
+      <c r="H16" s="9">
+        <v>6</v>
       </c>
       <c r="I16" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="K16" s="9">
         <v>0</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L17" si="2">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A16,"','",B16,"','",C16,"','",D16,"','",E15,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F16,"' AND M.MODULE='",J16,"'),'",G16,"',",IF(H16="","null",H16),",'",I16,"','",J16,"','",K16,"',now(),now());")</f>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/edit/**','/edit/**','博客编辑服务','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
+        <f t="shared" ref="L16" si="3">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A16,"','",B16,"','",C16,"','",D16,"','",E16,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F16,"' AND M.MODULE='",J16,"'),'",G16,"',",IF(H16="","null",H16),",'",I16,"','",J16,"','",K16,"',now(),now());")</f>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_blog','/blog','wWw博客-博客管理','blog/ManageBlog.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',6,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="9" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>174</v>
+        <v>190</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" s="9">
+        <v>7</v>
       </c>
       <c r="I17" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="K17" s="9">
         <v>0</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('/user/**','/user/**','用户博客服务','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
+        <f t="shared" ref="L17:L19" si="4">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A17,"','",B17,"','",C17,"','",D17,"','",E17,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F17,"' AND M.MODULE='",J17,"'),'",G17,"',",IF(H17="","null",H17),",'",I17,"','",J17,"','",K17,"',now(),now());")</f>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_follow','/follow','wWw博客-我的关注','blog/Follow.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',7,'3','admin-router','0',now(),now());</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H18" s="9">
+        <v>8</v>
+      </c>
+      <c r="I18" s="9">
+        <v>3</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_fans','/fans','wWw博客-我的粉丝','blog/Fans.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',8,'3','admin-router','0',now(),now());</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H19" s="9">
+        <v>9</v>
+      </c>
+      <c r="I19" s="9">
+        <v>3</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_collect','/collect','wWw博客-我的收藏','blog/collect.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',9,'3','admin-router','0',now(),now());</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I20" s="9">
+        <v>2</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" t="str">
+        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A20,"','",B20,"','",C20,"','",D20,"','",E20,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F20,"' AND M.MODULE='",J20,"'),'",G20,"',",IF(H20="","null",H20),",'",I20,"','",J20,"','",K20,"',now(),now());")</f>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_base_user','/user/**','用户信息请求路径','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" s="9">
+        <v>2</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" t="str">
+        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A21,"','",B21,"','",C21,"','",D21,"','",E21,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F21,"' AND M.MODULE='",J21,"'),'",G21,"',",IF(H21="","null",H21),",'",I21,"','",J21,"','",K21,"',now(),now());")</f>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_base_admin','/admin/**','管理员请求路径','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I22" s="9">
+        <v>2</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" t="str">
+        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A22,"','",B22,"','",C22,"','",D22,"','",E25,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F22,"' AND M.MODULE='",J22,"'),'",G22,"',",IF(H22="","null",H22),",'",I22,"','",J22,"','",K22,"',now(),now());")</f>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_base_oauth','/feign/oauth/**','服务接口','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" s="9">
+        <v>2</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" t="str">
+        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A23,"','",B23,"','",C23,"','",D23,"','",E25,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F23,"' AND M.MODULE='",J23,"'),'",G23,"',",IF(H23="","null",H23),",'",I23,"','",J23,"','",K23,"',now(),now());")</f>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_blog_edit','/edit/**','博客编辑服务','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24" s="9">
+        <v>2</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" ref="L24" si="5">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A24,"','",B24,"','",C24,"','",D24,"','",E23,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F24,"' AND M.MODULE='",J24,"'),'",G24,"',",IF(H24="","null",H24),",'",I24,"','",J24,"','",K24,"',now(),now());")</f>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_blog_user','/user/**','用户博客服务','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I25" s="9">
+        <v>2</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" t="str">
+        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A25,"','",B25,"','",C25,"','",D25,"','",E22,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F25,"' AND M.MODULE='",J25,"'),'",G25,"',",IF(H25="","null",H25),",'",I25,"','",J25,"','",K25,"',now(),now());")</f>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_blog_oauth','/feign/oauth/**','服务接口','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
       </c>
     </row>
   </sheetData>
@@ -2698,29 +3036,29 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>24</v>
@@ -2728,13 +3066,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="12"/>
     </row>
@@ -2743,14 +3081,14 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D17" si="0">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A3,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C3,"' AND MODULE='",B3,"'),now(),now());")</f>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='userInfo' AND MODULE='admin-router'),now(),now());</v>
+        <f t="shared" ref="D3:D22" si="0">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A3,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C3,"' AND MODULE='",B3,"'),now(),now());")</f>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menu_user' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2758,14 +3096,14 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='users' AND MODULE='admin-router'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menu_users' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2773,194 +3111,269 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>112</v>
+        <v>213</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='news' AND MODULE='admin-router'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menu_menu' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
-        <v>107</v>
+      <c r="B6" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menu' AND MODULE='admin-router'),now(),now());</v>
+        <f t="shared" ref="D6:D8" si="1">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A6,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C6,"' AND MODULE='",B6,"'),now(),now());")</f>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='router_user' AND MODULE='admin-router'),now(),now());</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>107</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='userInfo' AND MODULE='admin-router'),now(),now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='router_users' AND MODULE='admin-router'),now(),now());</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>107</v>
+        <v>26</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='news' AND MODULE='admin-router'),now(),now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='router_news' AND MODULE='admin-router'),now(),now());</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
-        <v>94</v>
+      <c r="B9" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" ref="D9" si="1">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A9,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C9,"' AND MODULE='",B9,"'),now(),now());")</f>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='userInfo' AND MODULE='admin-menu'),now(),now());</v>
+        <f t="shared" ref="D9" si="2">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A9,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C9,"' AND MODULE='",B9,"'),now(),now());")</f>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='router_menu' AND MODULE='admin-router'),now(),now());</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='userList' AND MODULE='admin-menu'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menu_user' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menuManage' AND MODULE='admin-menu'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menu_editor' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='userInfo' AND MODULE='admin-menu'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menu_blog' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>105</v>
+        <v>210</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='/user/**' AND MODULE='admin-oauth2'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menu_follow' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>105</v>
+        <v>210</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='/menu/**' AND MODULE='admin-oauth2'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menu_fans' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>105</v>
+        <v>210</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='/user/**' AND MODULE='admin-oauth2'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menu_collect' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" t="s">
-        <v>107</v>
+        <v>210</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='editor' AND MODULE='admin-router'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='router_user' AND MODULE='admin-router'),now(),now());</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" t="s">
-        <v>94</v>
+        <v>210</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='editBlog' AND MODULE='admin-menu'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='router_news' AND MODULE='admin-router'),now(),now());</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='router_editor' AND MODULE='admin-router'),now(),now());</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='router_blog' AND MODULE='admin-router'),now(),now());</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='router_follow' AND MODULE='admin-router'),now(),now());</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='router_fans' AND MODULE='admin-router'),now(),now());</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='router_collect' AND MODULE='admin-router'),now(),now());</v>
       </c>
     </row>
   </sheetData>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CODE_DATA" sheetId="7" r:id="rId1"/>
@@ -818,10 +818,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>blog/collect.vue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>博客管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -944,6 +940,10 @@
   </si>
   <si>
     <t>router_blog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blog/Collect.vue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2259,9 +2259,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>103</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>170</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>94</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>95</v>
@@ -2474,13 +2474,13 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>99</v>
@@ -2504,16 +2504,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>193</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H8" s="9">
         <v>6</v>
@@ -2534,16 +2534,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H9" s="9">
         <v>7</v>
@@ -2564,16 +2564,16 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>197</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H10" s="9">
         <v>8</v>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>103</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>104</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>106</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>108</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>167</v>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>188</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>193</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>194</v>
@@ -2834,7 +2834,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>197</v>
@@ -2843,7 +2843,7 @@
         <v>192</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="H19" s="9">
         <v>9</v>
@@ -2859,12 +2859,12 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" si="4"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_collect','/collect','wWw博客-我的收藏','blog/collect.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',9,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_collect','/collect','wWw博客-我的收藏','blog/Collect.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',9,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>100</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>180</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s">
         <v>173</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>171</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>174</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s">
         <v>173</v>
@@ -3038,7 +3038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
@@ -3084,7 +3084,7 @@
         <v>93</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D22" si="0">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A3,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C3,"' AND MODULE='",B3,"'),now(),now());")</f>
@@ -3099,7 +3099,7 @@
         <v>93</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -3114,7 +3114,7 @@
         <v>93</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -3129,7 +3129,7 @@
         <v>102</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ref="D6:D8" si="1">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A6,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C6,"' AND MODULE='",B6,"'),now(),now());")</f>
@@ -3144,7 +3144,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="1"/>
@@ -3159,7 +3159,7 @@
         <v>102</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
@@ -3174,7 +3174,7 @@
         <v>102</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ref="D9" si="2">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A9,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C9,"' AND MODULE='",B9,"'),now(),now());")</f>
@@ -3183,13 +3183,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
         <v>93</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -3198,13 +3198,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -3213,13 +3213,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
         <v>93</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -3228,13 +3228,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B13" t="s">
         <v>93</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -3243,13 +3243,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14" t="s">
         <v>93</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -3258,13 +3258,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B15" t="s">
         <v>93</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -3273,13 +3273,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -3288,13 +3288,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -3303,13 +3303,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -3318,13 +3318,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -3333,13 +3333,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -3348,13 +3348,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -3363,13 +3363,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -2261,7 +2261,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2498,22 +2498,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" ref="L7:L10" si="2">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A7,"','",B7,"','",C7,"','",D7,"','",E7,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F7,"' AND M.MODULE='",J7,"'),'",G7,"',",IF(H7="","null",H7),",'",I7,"','",J7,"','",K7,"',now(),now());")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_blog','/blog','博客管理','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-menu',5,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H8" s="9">
         <v>6</v>
@@ -2528,22 +2528,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_follow','/follow','我的关注','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-lx-likefill',6,'1','admin-menu','0',now(),now());</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_collect','/collect','我的收藏','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-lx-favorfill',6,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H9" s="9">
         <v>7</v>
@@ -2558,22 +2558,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_fans','/fans','我的粉丝','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-lx-friend',7,'1','admin-menu','0',now(),now());</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_follow','/follow','我的关注','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-lx-likefill',7,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H10" s="9">
         <v>8</v>
@@ -2588,8 +2588,8 @@
         <v>0</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_collect','/collect','我的收藏','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-lx-favorfill',8,'1','admin-menu','0',now(),now());</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_fans','/fans','我的粉丝','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-lx-friend',8,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" ref="L16" si="3">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A16,"','",B16,"','",C16,"','",D16,"','",E16,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F16,"' AND M.MODULE='",J16,"'),'",G16,"',",IF(H16="","null",H16),",'",I16,"','",J16,"','",K16,"',now(),now());")</f>
+        <f t="shared" ref="L16" si="2">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A16,"','",B16,"','",C16,"','",D16,"','",E16,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F16,"' AND M.MODULE='",J16,"'),'",G16,"',",IF(H16="","null",H16),",'",I16,"','",J16,"','",K16,"',now(),now());")</f>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_blog','/blog','wWw博客-博客管理','blog/ManageBlog.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',6,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" ref="L17:L19" si="4">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A17,"','",B17,"','",C17,"','",D17,"','",E17,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F17,"' AND M.MODULE='",J17,"'),'",G17,"',",IF(H17="","null",H17),",'",I17,"','",J17,"','",K17,"',now(),now());")</f>
+        <f t="shared" ref="L17:L19" si="3">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A17,"','",B17,"','",C17,"','",D17,"','",E17,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F17,"' AND M.MODULE='",J17,"'),'",G17,"',",IF(H17="","null",H17),",'",I17,"','",J17,"','",K17,"',now(),now());")</f>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_follow','/follow','wWw博客-我的关注','blog/Follow.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',7,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_fans','/fans','wWw博客-我的粉丝','blog/Fans.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',8,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_collect','/collect','wWw博客-我的收藏','blog/Collect.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',9,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" ref="L24" si="5">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A24,"','",B24,"','",C24,"','",D24,"','",E23,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F24,"' AND M.MODULE='",J24,"'),'",G24,"',",IF(H24="","null",H24),",'",I24,"','",J24,"','",K24,"',now(),now());")</f>
+        <f t="shared" ref="L24" si="4">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A24,"','",B24,"','",C24,"','",D24,"','",E23,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F24,"' AND M.MODULE='",J24,"'),'",G24,"',",IF(H24="","null",H24),",'",I24,"','",J24,"','",K24,"',now(),now());")</f>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_blog_user','/user/**','用户博客服务','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
       </c>
     </row>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="247">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -944,6 +944,68 @@
   </si>
   <si>
     <t>blog/Collect.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_eureka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_hystrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/eureka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hystrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eureka监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-icon-data-analysis</t>
+  </si>
+  <si>
+    <t>el-icon-data-line</t>
+  </si>
+  <si>
+    <t>/eureka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>router_eureka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hystrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>router_hystrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wWw博客-Eureka监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hystrix监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wWw博客-Hystrix监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/Eureka.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/Hystrix.vue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2257,11 +2319,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2378,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L15" si="0">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F3,"' AND M.MODULE='",J3,"'),'",G3,"',",IF(H3="","null",H3),",'",I3,"','",J3,"','",K3,"',now(),now());")</f>
+        <f t="shared" ref="L3:L29" si="0">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F3,"' AND M.MODULE='",J3,"'),'",G3,"',",IF(H3="","null",H3),",'",I3,"','",J3,"','",K3,"',now(),now());")</f>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_user','/user','个人资料','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-s-custom',1,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
@@ -2438,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" ref="L5" si="1">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A5,"','",B5,"','",C5,"','",D5,"','",E5,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F5,"' AND M.MODULE='",J5,"'),'",G5,"',",IF(H5="","null",H5),",'",I5,"','",J5,"','",K5,"',now(),now());")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_users','/users','用户列表','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-user',3,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
@@ -2768,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" ref="L16" si="2">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A16,"','",B16,"','",C16,"','",D16,"','",E16,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F16,"' AND M.MODULE='",J16,"'),'",G16,"',",IF(H16="","null",H16),",'",I16,"','",J16,"','",K16,"',now(),now());")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_blog','/blog','wWw博客-博客管理','blog/ManageBlog.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',6,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
@@ -2798,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" ref="L17:L19" si="3">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A17,"','",B17,"','",C17,"','",D17,"','",E17,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F17,"' AND M.MODULE='",J17,"'),'",G17,"',",IF(H17="","null",H17),",'",I17,"','",J17,"','",K17,"',now(),now());")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_follow','/follow','wWw博客-我的关注','blog/Follow.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',7,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
@@ -2828,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_fans','/fans','wWw博客-我的粉丝','blog/Fans.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',8,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
@@ -2858,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_collect','/collect','wWw博客-我的收藏','blog/Collect.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',9,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
@@ -2885,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="str">
-        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A20,"','",B20,"','",C20,"','",D20,"','",E20,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F20,"' AND M.MODULE='",J20,"'),'",G20,"',",IF(H20="","null",H20),",'",I20,"','",J20,"','",K20,"',now(),now());")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_base_user','/user/**','用户信息请求路径','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
       </c>
     </row>
@@ -2912,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="str">
-        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A21,"','",B21,"','",C21,"','",D21,"','",E21,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F21,"' AND M.MODULE='",J21,"'),'",G21,"',",IF(H21="","null",H21),",'",I21,"','",J21,"','",K21,"',now(),now());")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_base_admin','/admin/**','管理员请求路径','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
       </c>
     </row>
@@ -2939,8 +3001,8 @@
         <v>0</v>
       </c>
       <c r="L22" t="str">
-        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A22,"','",B22,"','",C22,"','",D22,"','",E25,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F22,"' AND M.MODULE='",J22,"'),'",G22,"',",IF(H22="","null",H22),",'",I22,"','",J22,"','",K22,"',now(),now());")</f>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_base_oauth','/feign/oauth/**','服务接口','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_base_oauth','/feign/oauth/**','服务接口','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2966,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="str">
-        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A23,"','",B23,"','",C23,"','",D23,"','",E25,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F23,"' AND M.MODULE='",J23,"'),'",G23,"',",IF(H23="","null",H23),",'",I23,"','",J23,"','",K23,"',now(),now());")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_blog_edit','/edit/**','博客编辑服务','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
       </c>
     </row>
@@ -2993,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" ref="L24" si="4">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A24,"','",B24,"','",C24,"','",D24,"','",E23,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F24,"' AND M.MODULE='",J24,"'),'",G24,"',",IF(H24="","null",H24),",'",I24,"','",J24,"','",K24,"',now(),now());")</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_blog_user','/user/**','用户博客服务','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
       </c>
     </row>
@@ -3020,8 +3082,128 @@
         <v>0</v>
       </c>
       <c r="L25" t="str">
-        <f>CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A25,"','",B25,"','",C25,"','",D25,"','",E22,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F25,"' AND M.MODULE='",J25,"'),'",G25,"',",IF(H25="","null",H25),",'",I25,"','",J25,"','",K25,"',now(),now());")</f>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_blog_oauth','/feign/oauth/**','服务接口','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_blog_oauth','/feign/oauth/**','服务接口','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H26" s="9">
+        <v>9</v>
+      </c>
+      <c r="I26" s="9">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_eureka','/eureka','Eureka监控','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-data-analysis',9,'1','admin-menu','0',now(),now());</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="H27" s="9">
+        <v>10</v>
+      </c>
+      <c r="I27" s="9">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>93</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_hystrix','/hystrix','Hystrix监控','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-data-line',10,'1','admin-menu','0',now(),now());</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H28" s="9">
+        <v>10</v>
+      </c>
+      <c r="I28" s="9">
+        <v>3</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_eureka','/eureka','wWw博客-Eureka监控','admin/Eureka.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',10,'3','admin-router','0',now(),now());</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H29" s="9">
+        <v>11</v>
+      </c>
+      <c r="I29" s="9">
+        <v>3</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_hystrix','/hystrix','wWw博客-Hystrix监控','admin/Hystrix.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',11,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
   </sheetData>
@@ -3036,11 +3218,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3087,7 +3269,7 @@
         <v>202</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D22" si="0">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A3,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C3,"' AND MODULE='",B3,"'),now(),now());")</f>
+        <f t="shared" ref="D3:D26" si="0">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A3,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C3,"' AND MODULE='",B3,"'),now(),now());")</f>
         <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menu_user' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
@@ -3374,6 +3556,66 @@
       <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='user'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='router_collect' AND MODULE='admin-router'),now(),now());</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menu_eureka' AND MODULE='admin-menu'),now(),now());</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menu_hystrix' AND MODULE='admin-menu'),now(),now());</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='router_eureka' AND MODULE='admin-router'),now(),now());</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='router_hystrix' AND MODULE='admin-router'),now(),now());</v>
       </c>
     </row>
   </sheetData>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CODE_DATA" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="238">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -947,65 +947,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>menu_eureka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_hystrix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/eureka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hystrix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eureka监控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>el-icon-data-analysis</t>
   </si>
   <si>
-    <t>el-icon-data-line</t>
-  </si>
-  <si>
-    <t>/eureka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>router_eureka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hystrix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>router_hystrix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wWw博客-Eureka监控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hystrix监控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wWw博客-Hystrix监控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/Eureka.vue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/Hystrix.vue</t>
+    <t>menu_monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>router_monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wWw博客-后台监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/Monitor.vue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2319,11 +2284,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomLeft" activeCell="L27" sqref="L26:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2440,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L29" si="0">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F3,"' AND M.MODULE='",J3,"'),'",G3,"',",IF(H3="","null",H3),",'",I3,"','",J3,"','",K3,"',now(),now());")</f>
+        <f t="shared" ref="L3:L27" si="0">CONCATENATE("INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('",A3,"','",B3,"','",C3,"','",D3,"','",E3,"',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='",F3,"' AND M.MODULE='",J3,"'),'",G3,"',",IF(H3="","null",H3),",'",I3,"','",J3,"','",K3,"',now(),now());")</f>
         <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_user','/user','个人资料','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-s-custom',1,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
@@ -3088,16 +3053,16 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>235</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H26" s="9">
         <v>9</v>
@@ -3113,97 +3078,37 @@
       </c>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_eureka','/eureka','Eureka监控','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-data-analysis',9,'1','admin-menu','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_monitor','/monitor','后台监控','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-data-analysis',9,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>234</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="G27" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>237</v>
       </c>
       <c r="H27" s="9">
         <v>10</v>
       </c>
       <c r="I27" s="9">
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
-        <v>93</v>
+        <v>3</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="K27" s="9">
         <v>0</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_hystrix','/hystrix','Hystrix监控','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-data-line',10,'1','admin-menu','0',now(),now());</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H28" s="9">
-        <v>10</v>
-      </c>
-      <c r="I28" s="9">
-        <v>3</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K28" s="9">
-        <v>0</v>
-      </c>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_eureka','/eureka','wWw博客-Eureka监控','admin/Eureka.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',10,'3','admin-router','0',now(),now());</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="H29" s="9">
-        <v>11</v>
-      </c>
-      <c r="I29" s="9">
-        <v>3</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K29" s="9">
-        <v>0</v>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_hystrix','/hystrix','wWw博客-Hystrix监控','admin/Hystrix.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',11,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_monitor','/monitor','wWw博客-后台监控','admin/Monitor.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',10,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
   </sheetData>
@@ -3218,11 +3123,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
+      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3269,7 +3174,7 @@
         <v>202</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D26" si="0">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A3,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C3,"' AND MODULE='",B3,"'),now(),now());")</f>
+        <f t="shared" ref="D3:D24" si="0">CONCATENATE("INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='",A3,"'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='",C3,"' AND MODULE='",B3,"'),now(),now());")</f>
         <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menu_user' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
@@ -3566,56 +3471,26 @@
         <v>93</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menu_eureka' AND MODULE='admin-menu'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menu_monitor' AND MODULE='admin-menu'),now(),now());</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
-        <v>93</v>
+      <c r="B24" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='menu_hystrix' AND MODULE='admin-menu'),now(),now());</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='router_eureka' AND MODULE='admin-router'),now(),now());</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='router_hystrix' AND MODULE='admin-router'),now(),now());</v>
+        <v>INSERT INTO SYS_ROLE_MENU (ROLE_ID,MENU_ID,UPDATE_TIME,CREATE_TIME) VALUES ((SELECT C.ROLE_ID FROM SYS_ROLE C WHERE C.ROLE_CODE='admin'),(SELECT MENU_ID FROM SYS_MENU WHERE MENU_CODE='router_monitor' AND MODULE='admin-router'),now(),now());</v>
       </c>
     </row>
   </sheetData>

--- a/base/files/base-初始化数据.xlsx
+++ b/base/files/base-初始化数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CODE_DATA" sheetId="7" r:id="rId1"/>
@@ -2286,9 +2286,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L27" sqref="L26:L27"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2621,49 +2621,49 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>178</v>
+        <v>235</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="H11" s="9">
+        <v>9</v>
+      </c>
+      <c r="I11" s="9">
         <v>1</v>
       </c>
-      <c r="I11" s="9">
-        <v>3</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>102</v>
+      <c r="J11" t="s">
+        <v>93</v>
       </c>
       <c r="K11" s="9">
         <v>0</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_user','/user','wWw博客-个人资料','admin/info/User.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',1,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_monitor','/monitor','后台监控','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-data-analysis',9,'1','admin-menu','0',now(),now());</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" t="s">
-        <v>105</v>
+        <v>183</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="H12" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="9">
         <v>3</v>
@@ -2676,24 +2676,24 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_users','/users','wWw博客-用户列表','admin/UserList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',2,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_user','/user','wWw博客-个人资料','admin/info/User.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',1,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>107</v>
+        <v>184</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
       </c>
       <c r="H13" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="9">
         <v>3</v>
@@ -2706,24 +2706,24 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_news','/news','wWw博客-消息中心','admin/News.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',3,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_users','/users','wWw博客-用户列表','admin/UserList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',2,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H14" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" s="9">
         <v>3</v>
@@ -2736,24 +2736,24 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_menu','/menu','wWw博客-菜单管理','admin/MenuList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',4,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_news','/news','wWw博客-消息中心','admin/News.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',3,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="H15" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" s="9">
         <v>3</v>
@@ -2766,24 +2766,24 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_editor','/editor','wWw博客-发布博客','blog/EditBlog.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',5,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_menu','/menu','wWw博客-菜单管理','admin/MenuList.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',4,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="9" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="H16" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I16" s="9">
         <v>3</v>
@@ -2796,24 +2796,24 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_blog','/blog','wWw博客-博客管理','blog/ManageBlog.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',6,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_editor','/editor','wWw博客-发布博客','blog/EditBlog.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',5,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="9" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H17" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" s="9">
         <v>3</v>
@@ -2826,24 +2826,24 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_follow','/follow','wWw博客-我的关注','blog/Follow.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',7,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_blog','/blog','wWw博客-博客管理','blog/ManageBlog.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',6,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H18" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I18" s="9">
         <v>3</v>
@@ -2856,24 +2856,24 @@
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_fans','/fans','wWw博客-我的粉丝','blog/Fans.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',8,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_follow','/follow','wWw博客-我的关注','blog/Follow.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',7,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="H19" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I19" s="9">
         <v>3</v>
@@ -2886,153 +2886,159 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_collect','/collect','wWw博客-我的收藏','blog/Collect.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',9,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_fans','/fans','wWw博客-我的粉丝','blog/Fans.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',8,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="9" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>158</v>
+        <v>192</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H20" s="9">
+        <v>9</v>
       </c>
       <c r="I20" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="K20" s="9">
         <v>0</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_base_user','/user/**','用户信息请求路径','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_collect','/collect','wWw博客-我的收藏','blog/Collect.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',9,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="9" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>158</v>
+        <v>236</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="H21" s="9">
+        <v>10</v>
       </c>
       <c r="I21" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="K21" s="9">
         <v>0</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_base_admin','/admin/**','管理员请求路径','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_monitor','/monitor','wWw博客-后台监控','admin/Monitor.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',10,'3','admin-router','0',now(),now());</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B22" t="s">
-        <v>173</v>
+        <v>204</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I22" s="9">
         <v>2</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="K22" s="9">
         <v>0</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_base_oauth','/feign/oauth/**','服务接口','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_base_user','/user/**','用户信息请求路径','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I23" s="9">
         <v>2</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="K23" s="9">
         <v>0</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_blog_edit','/edit/**','博客编辑服务','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_base_admin','/admin/**','管理员请求路径','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>174</v>
+        <v>206</v>
+      </c>
+      <c r="B24" t="s">
+        <v>173</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I24" s="9">
         <v>2</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K24" s="9">
         <v>0</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_blog_user','/user/**','用户博客服务','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_base_oauth','/feign/oauth/**','服务接口','','base:read,base:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-base'),'',null,'2','my-base','0',now(),now());</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B25" t="s">
-        <v>173</v>
+        <v>208</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>163</v>
@@ -3048,67 +3054,61 @@
       </c>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_blog_oauth','/feign/oauth/**','服务接口','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_blog_edit','/edit/**','博客编辑服务','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="9" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="H26" s="9">
-        <v>9</v>
+        <v>175</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="I26" s="9">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>93</v>
+        <v>2</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="K26" s="9">
         <v>0</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('menu_monitor','/monitor','后台监控','','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-menu'),'el-icon-data-analysis',9,'1','admin-menu','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_blog_user','/user/**','用户博客服务','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>234</v>
+        <v>223</v>
+      </c>
+      <c r="B27" t="s">
+        <v>173</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="H27" s="9">
-        <v>10</v>
+        <v>162</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="I27" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="K27" s="9">
         <v>0</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('router_monitor','/monitor','wWw博客-后台监控','admin/Monitor.vue','',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='admin-router'),'',10,'3','admin-router','0',now(),now());</v>
+        <v>INSERT INTO SYS_MENU (MENU_CODE,MENU_URL,MENU_NAME,VUE_PATH,SCOPE,PARENT_ID,MENU_ICON,MENU_ORDER,MENU_TYPE,MODULE,IS_DELETE,UPDATE_TIME,CREATE_TIME) VALUES('oauth_blog_oauth','/feign/oauth/**','服务接口','','blog:read,blog:write',(SELECT M.MENU_ID FROM SYS_MENU M WHERE M.MENU_CODE='' AND M.MODULE='my-blog'),'',null,'2','my-blog','0',now(),now());</v>
       </c>
     </row>
   </sheetData>
@@ -3125,9 +3125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
